--- a/results/results_open.xlsx
+++ b/results/results_open.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Product Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": ["category", "search", "page", "size"], "outputs": ["product list"], "description": "Returns a paginated list of products, optionally filtered by category or search term."}, {"name": "/products/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["product details"], "description": "Returns detailed information about a specific product."}, {"name": "/products", "method": "POST", "inputs": ["product data"], "outputs": ["created product"], "description": "Adds a new product to the catalog (admin only)."}, {"name": "/products/{productId}", "method": "PUT", "inputs": ["productId", "updated product data"], "outputs": ["updated product"], "description": "Updates information for an existing product (admin only)."}], "user_stories": ["1", "4", "14", "18"], "parameters": ["productId", "category", "search", "page", "size", "product data"], "description": "Manages the catalog of products, including browsing, detailed product information, and admin management of products."}, {"name": "Shopping Cart Service", "endpoints": [{"name": "/carts/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["cart contents"], "description": "Retrieves the current shopping cart for a user."}, {"name": "/carts/{userId}/items", "method": "POST", "inputs": ["userId", "productId", "quantity"], "outputs": ["updated cart"], "description": "Adds a product to the user's shopping cart."}, {"name": "/carts/{userId}/items/{productId}", "method": "DELETE", "inputs": ["userId", "productId"], "outputs": ["updated cart"], "description": "Removes a product from the user's shopping cart."}], "user_stories": ["2", "15"], "parameters": ["userId", "productId", "quantity"], "description": "Handles adding, removing, and managing products in the customer's shopping cart."}, {"name": "Checkout Service", "endpoints": [{"name": "/checkout", "method": "POST", "inputs": ["userId", "cartId", "paymentInfo", "shippingAddress", "shippingOption"], "outputs": ["order confirmation", "orderId"], "description": "Processes the checkout for a user's cart, including payment, inventory reservation, and order creation."}, {"name": "/checkout/calculate", "method": "POST", "inputs": ["cartId", "shippingAddress", "shippingOption"], "outputs": ["tax", "shipping cost", "total"], "description": "Calculates tax and shipping costs for the current cart."}], "user_stories": ["5", "9", "17", "22"], "parameters": ["userId", "cartId", "paymentInfo", "shippingAddress", "shippingOption"], "description": "Manages the checkout process, including order placement, payment processing, tax and shipping calculation, and prevention of duplicate orders."}, {"name": "Recommendation Service", "endpoints": [{"name": "/recommendations/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["recommended products"], "description": "Returns a list of recommended products for a user based on preferences and behaviors."}], "user_stories": ["3", "11"], "parameters": ["userId"], "description": "Provides product recommendations based on user preferences, behaviors, and browsing or purchase history."}, {"name": "Email Notification Service", "endpoints": [{"name": "/notifications/order-confirmation", "method": "POST", "inputs": ["userId", "orderId", "email"], "outputs": ["notification status"], "description": "Sends an order confirmation email to the customer."}, {"name": "/notifications/promotions", "method": "POST", "inputs": ["userId", "email", "promotion details"], "outputs": ["notification status"], "description": "Sends a promotional email to the customer."}], "user_stories": ["6", "12", "25"], "parameters": ["userId", "orderId", "email", "promotion details"], "description": "Sends order confirmation emails and promotional emails to customers."}, {"name": "Shipping Service", "endpoints": [{"name": "/shipping/options", "method": "GET", "inputs": ["address", "cartId"], "outputs": ["shipping options"], "description": "Returns available shipping options for the given address and cart."}, {"name": "/shipping/track/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["shipping status"], "description": "Returns the shipping status for a given order."}, {"name": "/shipping/address/{orderId}", "method": "PUT", "inputs": ["orderId", "new address"], "outputs": ["update status"], "description": "Updates the shipping address for an order before it is shipped."}], "user_stories": ["7", "8", "19"], "parameters": ["address", "cartId", "orderId", "new address"], "description": "Manages shipping options, shipping address updates, and order tracking."}, {"name": "Currency Service", "endpoints": [{"name": "/currency/convert", "method": "GET", "inputs": ["amount", "fromCurrency", "toCurrency"], "outputs": ["converted amount"], "description": "Converts an amount from one currency to another."}, {"name": "/currency/rates", "method": "GET", "inputs": ["baseCurrency"], "outputs": ["exchange rates"], "description": "Returns current exchange rates for the base currency."}], "user_stories": ["10", "20"], "parameters": ["amount", "fromCurrency", "toCurrency", "baseCurrency"], "description": "Handles currency conversion and displays prices in the user's local currency."}, {"name": "Inventory Service", "endpoints": [{"name": "/inventory/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["inventory level"], "description": "Returns the current inventory level for a product."}, {"name": "/inventory/reserve", "method": "POST", "inputs": ["productId", "quantity", "orderId"], "outputs": ["reservation status"], "description": "Reserves inventory for an order."}, {"name": "/inventory/release", "method": "POST", "inputs": ["productId", "quantity", "orderId"], "outputs": ["release status"], "description": "Releases reserved inventory if an order is cancelled or fails."}], "user_stories": ["13"], "parameters": ["productId", "quantity", "orderId"], "description": "Manages inventory levels to prevent overselling of products."}, {"name": "Order History Service", "endpoints": [{"name": "/orders/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["order history"], "description": "Returns the order history for a user."}, {"name": "/orders/{userId}/reorder/{orderId}", "method": "POST", "inputs": ["userId", "orderId"], "outputs": ["new orderId"], "description": "Allows a user to reorder items from a previous order."}], "user_stories": ["21"], "parameters": ["userId", "orderId"], "description": "Allows customers to review their past orders and reorder items."}, {"name": "Ad Service", "endpoints": [{"name": "/ads/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["ad list"], "description": "Returns a list of targeted ads for a user based on browsing habits."}], "user_stories": ["16"], "parameters": ["userId"], "description": "Displays targeted ads to users based on their browsing habits."}, {"name": "Reporting Service", "endpoints": [{"name": "/reports/sales", "method": "GET", "inputs": ["startDate", "endDate", "filters"], "outputs": ["sales report"], "description": "Generates sales reports for admins to analyze business performance."}], "user_stories": ["23"], "parameters": ["startDate", "endDate", "filters"], "description": "Generates sales reports for admins to analyze business performance."}], "patterns": [{"group_name": "Product Catalog Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Product Catalog Service"], "explaination": "Each microservice should have its own database for data isolation and independent scaling, as recommended in the context."}, {"group_name": "Shopping Cart Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Shopping Cart Service"], "explaination": "The aggregate pattern ensures atomic updates to the cart and its items, as per the context and user stories 2 and 15."}, {"group_name": "Checkout Transaction Coordination", "implementation_pattern": "saga", "involved_microservices": ["Checkout Service", "Inventory Service", "Shipping Service", "Email Notification Service"], "explaination": "The checkout process spans multiple services and requires coordination for distributed transactions, as described in the context and user stories 5, 9, 17, 22, and 13."}, {"group_name": "Product Recommendations", "implementation_pattern": "api composition", "involved_microservices": ["Recommendation Service", "Product Catalog Service", "Order History Service"], "explaination": "Recommendations require data from multiple services (user behavior, product info, order history), making API composition suitable as per context and user stories 3 and 11."}, {"group_name": "Order History Query", "implementation_pattern": "cqrs", "involved_microservices": ["Order History Service"], "explaination": "Order history requires a materialized view for efficient queries, as per context and user story 21."}, {"group_name": "Sales Reporting", "implementation_pattern": "cqrs", "involved_microservices": ["Reporting Service"], "explaination": "Reporting requires complex queries and materialized views, as per context and user story 23."}, {"group_name": "Domain Events for Inter-Service Communication", "implementation_pattern": "domain event", "involved_microservices": ["Product Catalog Service", "Shopping Cart Service", "Checkout Service", "Inventory Service", "Email Notification Service", "Recommendation Service", "Ad Service", "Reporting Service", "Shipping Service"], "explaination": "Domain events are used for eventual consistency and to trigger actions in other services, as described in the context and multiple user stories (e.g., order placed, inventory updated, promotional emails)."}, {"group_name": "Currency Conversion", "implementation_pattern": "database per service", "involved_microservices": ["Currency Service"], "explaination": "Currency rates and conversions are managed independently, requiring their own datastore as per context and user stories 10 and 20."}, {"group_name": "Ad Targeting", "implementation_pattern": "api composition", "involved_microservices": ["Ad Service", "Product Catalog Service", "Recommendation Service"], "explaination": "Ad targeting uses user behavior and product data, making API composition suitable as per context and user story 16."}], "datastore": [{"datastore_name": "Product Catalog Database", "associated_microservices": ["Product Catalog Service"], "description": "Stores product information, categories, and details. Required for browsing, detailed views, and admin management (user stories 1, 4, 14, 18)."}, {"datastore_name": "Shopping Cart Database", "associated_microservices": ["Shopping Cart Service"], "description": "Stores user carts and cart items, ensuring atomic updates for add/remove operations (user stories 2, 15)."}, {"datastore_name": "Order Database", "associated_microservices": ["Checkout Service"], "description": "Stores orders, payment status, and transaction details for checkout and duplicate order prevention (user stories 5, 9, 17, 22)."}, {"datastore_name": "Recommendation Database", "associated_microservices": ["Recommendation Service"], "description": "Stores user preferences, recommendation models, and history for personalized suggestions (user stories 3, 11)."}, {"datastore_name": "Notification Database", "associated_microservices": ["Email Notification Service"], "description": "Stores email templates, notification logs, and user preferences for order and promotional emails (user stories 6, 12, 25)."}, {"datastore_name": "Shipping Database", "associated_microservices": ["Shipping Service"], "description": "Stores shipping options, addresses, and tracking information (user stories 7, 8, 19)."}, {"datastore_name": "Currency Database", "associated_microservices": ["Currency Service"], "description": "Stores currency rates and conversion history for accurate price display (user stories 10, 20)."}, {"datastore_name": "Inventory Database", "associated_microservices": ["Inventory Service"], "description": "Stores inventory levels and reservations to prevent overselling (user story 13)."}, {"datastore_name": "Order History Database", "associated_microservices": ["Order History Service"], "description": "Stores materialized views of user order history for efficient queries and reordering (user story 21, CQRS pattern)."}, {"datastore_name": "Ad Database", "associated_microservices": ["Ad Service"], "description": "Stores ad content, user targeting data, and impression logs (user story 16)."}, {"datastore_name": "Reporting Database", "associated_microservices": ["Reporting Service"], "description": "Stores materialized sales and business performance data for reporting (user story 23, CQRS pattern)."}]}</t>
+          <t>{'microservices': [{'name': 'Product Catalog Service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['search_query', 'category', 'page', 'limit'], 'outputs': ['product_list'], 'description': 'Browse and search products in the catalog'}, {'name': '/products/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['product_details'], 'description': 'Get detailed information about a specific product'}, {'name': '/products', 'method': 'POST', 'inputs': ['product_name', 'description', 'price', 'category', 'images'], 'outputs': ['product_id', 'creation_status'], 'description': 'Admin endpoint to add new products to catalog'}, {'name': '/products/{product_id}', 'method': 'PUT', 'inputs': ['product_id', 'product_name', 'description', 'price', 'category', 'images'], 'outputs': ['update_status'], 'description': 'Admin endpoint to update product information'}], 'user_stories': ['1', '4', '14', '18'], 'parameters': ['product_id', 'product_name', 'description', 'price', 'category', 'images', 'stock_status'], 'description': 'Manages the product catalog including browsing, searching, and detailed product information. Handles product CRUD operations for admins.'}, {'name': 'Shopping Cart Service', 'endpoints': [{'name': '/cart/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['cart_items', 'total_price'], 'description': 'Retrieve the current shopping cart for a user'}, {'name': '/cart/{user_id}/items', 'method': 'POST', 'inputs': ['user_id', 'product_id', 'quantity'], 'outputs': ['cart_status'], 'description': 'Add a product to the shopping cart'}, {'name': '/cart/{user_id}/items/{item_id}', 'method': 'DELETE', 'inputs': ['user_id', 'item_id'], 'outputs': ['removal_status'], 'description': 'Remove an item from the shopping cart'}, {'name': '/cart/{user_id}/items/{item_id}', 'method': 'PUT', 'inputs': ['user_id', 'item_id', 'quantity'], 'outputs': ['update_status'], 'description': 'Update quantity of an item in cart'}], 'user_stories': ['2', '15'], 'parameters': ['user_id', 'cart_id', 'product_id', 'quantity', 'item_id'], 'description': 'Manages shopping cart operations including adding, removing, and viewing items in the cart.'}, {'name': 'Recommendation Service', 'endpoints': [{'name': '/recommendations/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['recommended_products'], 'description': 'Get personalized product recommendations for a user'}, {'name': '/recommendations/browsing-event', 'method': 'POST', 'inputs': ['user_id', 'product_id', 'timestamp', 'event_type'], 'outputs': ['event_status'], 'description': 'Record browsing events for recommendation algorithm'}], 'user_stories': ['3', '11'], 'parameters': ['user_id', 'browsing_history', 'purchase_history', 'recommendation_score'], 'description': 'Provides personalized product recommendations based on user browsing history, purchase patterns, and preferences.'}, {'name': 'Checkout Service', 'endpoints': [{'name': '/checkout/initiate', 'method': 'POST', 'inputs': ['user_id', 'cart_id'], 'outputs': ['checkout_session_id', 'order_summary'], 'description': 'Initiate checkout process for a cart'}, {'name': '/checkout/calculate-costs', 'method': 'POST', 'inputs': ['checkout_session_id', 'shipping_address', 'shipping_method'], 'outputs': ['tax_amount', 'shipping_cost', 'total_amount'], 'description': 'Calculate tax and shipping costs for order'}, {'name': '/checkout/place-order', 'method': 'POST', 'inputs': ['checkout_session_id', 'payment_method', 'idempotency_key'], 'outputs': ['order_id', 'order_status'], 'description': 'Place order with idempotency to prevent duplicates'}, {'name': '/checkout/order-status/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_status', 'status_details'], 'description': 'Get the status of an order placement'}], 'user_stories': ['5', '17', '22'], 'parameters': ['checkout_session_id', 'order_id', 'user_id', 'cart_id', 'tax_amount', 'shipping_cost', 'total_amount', 'idempotency_key', 'order_status'], 'description': 'Orchestrates the checkout process, handles order placement, calculates tax and shipping costs, prevents duplicate orders, and coordinates with payment and shipping services.'}, {'name': 'Payment Service', 'endpoints': [{'name': '/payment/process', 'method': 'POST', 'inputs': ['order_id', 'payment_method', 'amount', 'currency', 'payment_details'], 'outputs': ['transaction_id', 'payment_status'], 'description': 'Process payment for an order'}, {'name': '/payment/refund', 'method': 'POST', 'inputs': ['transaction_id', 'amount', 'reason'], 'outputs': ['refund_status'], 'description': 'Process refund for a failed transaction'}, {'name': '/payment/status/{transaction_id}', 'method': 'GET', 'inputs': ['transaction_id'], 'outputs': ['payment_status', 'payment_details'], 'description': 'Get status of a payment transaction'}], 'user_stories': ['9'], 'parameters': ['transaction_id', 'order_id', 'payment_method', 'amount', 'currency', 'payment_status'], 'description': 'Processes payments using multiple payment methods and handles payment transactions securely.'}, {'name': 'Email Notification Service', 'endpoints': [{'name': '/notifications/order-confirmation', 'method': 'POST', 'inputs': ['user_id', 'order_id', 'email_address', 'order_details'], 'outputs': ['notification_status'], 'description': 'Send order confirmation email to customer'}, {'name': '/notifications/promotional', 'method': 'POST', 'inputs': ['user_segment', 'email_content', 'subject'], 'outputs': ['campaign_id', 'send_status'], 'description': 'Send promotional emails to customer segments'}], 'user_stories': ['6', '12', '24'], 'parameters': ['notification_id', 'user_id', 'email_address', 'email_type', 'send_status'], 'description': 'Sends transactional and promotional emails including order confirmations and marketing communications.'}, {'name': 'Shipping Service', 'endpoints': [{'name': '/shipping/options', 'method': 'GET', 'inputs': ['destination_address', 'package_details'], 'outputs': ['shipping_options'], 'description': 'Get available shipping options for an order'}, {'name': '/shipping/create-shipment', 'method': 'POST', 'inputs': ['order_id', 'shipping_address', 'shipping_method'], 'outputs': ['shipment_id', 'tracking_number'], 'description': 'Create shipment for an order'}, {'name': '/shipping/track/{tracking_number}', 'method': 'GET', 'inputs': ['tracking_number'], 'outputs': ['shipment_status', 'location', 'estimated_delivery'], 'description': 'Track shipment status'}, {'name': '/shipping/update-address', 'method': 'PUT', 'inputs': ['shipment_id', 'new_address'], 'outputs': ['update_status'], 'description': 'Update shipping address before shipment'}], 'user_stories': ['7', '8', '19'], 'parameters': ['shipment_id', 'order_id', 'tracking_number', 'shipping_address', 'shipping_method', 'shipment_status'], 'description': 'Manages shipping options, tracks shipment status, and handles shipping address updates.'}, {'name': 'Currency Service', 'endpoints': [{'name': '/currency/convert', 'method': 'POST', 'inputs': ['amount', 'from_currency', 'to_currency'], 'outputs': ['converted_amount', 'exchange_rate'], 'description': 'Convert amount from one currency to another'}, {'name': '/currency/rates', 'method': 'GET', 'inputs': ['base_currency'], 'outputs': ['exchange_rates'], 'description': 'Get current exchange rates for all supported currencies'}], 'user_stories': ['10', '20'], 'parameters': ['base_currency', 'target_currency', 'exchange_rate', 'conversion_timestamp'], 'description': "Provides currency conversion functionality and displays prices in user's selected local currency."}, {'name': 'Inventory Service', 'endpoints': [{'name': '/inventory/check', 'method': 'POST', 'inputs': ['product_id', 'quantity'], 'outputs': ['availability_status', 'available_quantity'], 'description': 'Check if product quantity is available in stock'}, {'name': '/inventory/reserve', 'method': 'POST', 'inputs': ['product_id', 'quantity', 'reservation_id'], 'outputs': ['reservation_status'], 'description': 'Reserve inventory for checkout process'}, {'name': '/inventory/commit', 'method': 'POST', 'inputs': ['reservation_id'], 'outputs': ['commit_status'], 'description': 'Commit reserved inventory after successful payment'}, {'name': '/inventory/release', 'method': 'POST', 'inputs': ['reservation_id'], 'outputs': ['release_status'], 'description': 'Release reserved inventory if transaction fails'}, {'name': '/inventory/{product_id}', 'method': 'PUT', 'inputs': ['product_id', 'quantity'], 'outputs': ['update_status'], 'description': 'Update inventory levels for a product'}], 'user_stories': ['13'], 'parameters': ['product_id', 'available_quantity', 'reserved_quantity', 'reservation_id'], 'description': 'Manages product inventory levels and prevents overselling by tracking stock availability.'}, {'name': 'Order History Service', 'endpoints': [{'name': '/orders/history/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'page', 'limit'], 'outputs': ['order_list'], 'description': 'Retrieve past orders for a customer'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_details'], 'description': 'Get detailed information about a specific order'}, {'name': '/orders/reorder', 'method': 'POST', 'inputs': ['user_id', 'original_order_id'], 'outputs': ['new_cart_id'], 'description': 'Create new cart from previous order for reordering'}, {'name': '/orders/events', 'method': 'POST', 'inputs': ['order_id', 'event_type', 'event_data', 'timestamp'], 'outputs': ['event_status'], 'description': 'Record order-related events for event sourcing'}], 'user_stories': ['21'], 'parameters': ['order_id', 'user_id', 'order_status', 'order_items', 'order_timestamp', 'event_sequence'], 'description': 'Maintains customer order history and enables customers to review and reorder from past purchases.'}, {'name': 'Advertising Service', 'endpoints': [{'name': '/ads/targeted/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'page_context'], 'outputs': ['ad_list'], 'description': 'Get targeted ads for a user based on browsing history'}, {'name': '/ads/track-impression', 'method': 'POST', 'inputs': ['ad_id', 'user_id', 'timestamp'], 'outputs': ['tracking_status'], 'description': 'Track ad impression for analytics'}], 'user_stories': ['16'], 'parameters': ['ad_id', 'user_id', 'ad_content', 'targeting_criteria', 'impression_count'], 'description': 'Displays targeted advertisements to users based on their browsing behavior and preferences.'}, {'name': 'Analytics &amp; Reporting Service', 'endpoints': [{'name': '/analytics/sales-report', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'report_type'], 'outputs': ['sales_report'], 'description': 'Generate sales reports for specified period'}, {'name': '/analytics/product-performance', 'method': 'GET', 'inputs': ['start_date', 'end_date'], 'outputs': ['product_metrics'], 'description': 'Get product performance analytics'}, {'name': '/analytics/events', 'method': 'POST', 'inputs': ['event_type', 'event_data', 'timestamp'], 'outputs': ['ingestion_status'], 'description': 'Ingest business events for analytics processing'}], 'user_stories': ['23'], 'parameters': ['report_id', 'report_type', 'date_range', 'aggregated_metrics'], 'description': 'Generates sales reports and business analytics for administrative purposes.'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Product Catalog Service', 'Shopping Cart Service', 'Recommendation Service', 'Checkout Service', 'Payment Service', 'Email Notification Service', 'Shipping Service', 'Currency Service', 'Inventory Service', 'Order History Service', 'Advertising Service', 'Analytics &amp; Reporting Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends this approach for maintaining loose coupling between microservices. Each service manages its own data domain independently, enabling autonomous development, deployment, and scaling. This is essential for a microservices architecture to prevent tight coupling through shared databases.'}, {'group_name': 'Order Placement Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Checkout Service', 'Payment Service', 'Inventory Service', 'Shipping Service', 'Email Notification Service'], 'explaination': 'I chose the Saga pattern for the checkout process because it coordinates multiple services to maintain data consistency during order placement (User Story 5). The context specifically recommends this for handling complex transactions where if payment fails, inventory must be released, or if shipping cannot be arranged, payment must be refunded. This ensures atomic business transactions across distributed services without distributed transactions.'}, {'group_name': 'Inventory Reservation Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Shopping Cart Service', 'Checkout Service', 'Inventory Service'], 'explaination': 'I chose the Saga pattern for inventory management to prevent overselling (User Story 13). The context recommends coordinating between Shopping Cart, Checkout, and Inventory services to reserve and commit stock. This ensures that inventory is properly reserved during checkout and either committed on successful payment or released on failure, maintaining consistency without overselling.'}, {'group_name': 'Order History Event Store', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Order History Service'], 'explaination': 'I chose Event Sourcing for the Order History Service because the context specifically recommends storing all order-related events to enable order review and reordering (User Story 21). Event sourcing allows the service to maintain a complete history of order state changes, making it possible to reconstruct past orders and support reordering functionality while providing a complete audit trail.'}, {'group_name': 'Recommendation Behavior Tracking', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Recommendation Service'], 'explaination': 'I chose Event Sourcing for the Recommendation Service because the context recommends tracking browsing history and purchase patterns (User Stories 3, 11). Event sourcing enables the service to capture all user behavior events over time, building a rich dataset for generating personalized recommendations based on historical patterns.'}, {'group_name': 'Analytics Data Collection', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Analytics &amp; Reporting Service'], 'explaination': 'I chose Event Sourcing for the Analytics &amp; Reporting Service because the context recommends building reports from historical events (User Story 23). Event sourcing provides a complete history of business events that can be replayed and analyzed to generate comprehensive sales reports and business analytics without impacting transactional services.'}, {'group_name': 'Cross-Service Event Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['Checkout Service', 'Email Notification Service', 'Inventory Service', 'Shipping Service', 'Order History Service', 'Analytics &amp; Reporting Service'], 'explaination': 'I chose Domain Event pattern for asynchronous communication as recommended by the context. Events are emitted when orders are placed (triggering Email Notification Service for User Story 6), when promotional campaigns are launched (User Story 24), when inventory changes, and for shipping status updates (User Story 8). This enables loose coupling and event-driven architecture across services.'}, {'group_name': 'Shopping Cart Product Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Shopping Cart Service', 'Product Catalog Service'], 'explaination': 'I chose API Composition for the shopping cart view because the context recommends composing data from Shopping Cart Service and Product Catalog Service (User Story 2). When displaying the cart, product details need to be fetched from the catalog and combined with cart item quantities, which is a straightforward composition of data from two services.'}, {'group_name': 'Checkout Summary Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Checkout Service', 'Shopping Cart Service', 'Shipping Service', 'Currency Service'], 'explaination': 'I chose API Composition for the checkout summary because the context recommends aggregating cart items, shipping options, and tax calculations (User Stories 5, 17). The Checkout Service orchestrates data from multiple services to present a complete checkout summary including items, shipping options, costs, and currency conversion.'}, {'group_name': 'Product Recommendation Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Recommendation Service', 'Product Catalog Service'], 'explaination': 'I chose API Composition for product recommendations because the context recommends combining browsing history with product catalog data (User Story 3). The Recommendation Service identifies relevant product IDs based on user behavior, then composes full product details from the Product Catalog Service to present rich recommendations.'}, {'group_name': 'Order History Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Order History Service'], 'explaination': 'I chose CQRS for the Order History Service because the context specifically recommends maintaining a read-optimized view for quickly retrieving past orders (User Story 21). Combined with event sourcing, CQRS separates the write model (storing events) from the read model (optimized for queries), enabling fast order history retrieval without impacting write operations.'}, {'group_name': 'Analytics Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Analytics &amp; Reporting Service'], 'explaination': 'I chose CQRS for the Analytics &amp; Reporting Service because the context recommends creating materialized views for sales reports without impacting transactional services (User Story 23). CQRS enables the creation of optimized read models from business events, allowing complex analytical queries to run efficiently on pre-aggregated data.'}, {'group_name': 'Recommendation Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Recommendation Service'], 'explaination': 'I chose CQRS for the Recommendation Service because the context recommends building optimized read models from user behavior events for faster recommendation queries (User Stories 3, 11, 16). CQRS separates the event capture from the recommendation generation, enabling pre-computed recommendation models for low-latency responses.'}, {'group_name': 'Order Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Checkout Service'], 'explaination': 'I chose the Aggregate pattern for the Checkout Service as recommended by the context. The Order Aggregate defines a clear transactional boundary that includes order items, payment, and shipping details. This ensures consistency within the order domain while the Checkout Service acts as the aggregate root managing all order-related state changes.'}, {'group_name': 'Product Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Product Catalog Service'], 'explaination': 'I chose the Aggregate pattern for the Product Catalog Service as recommended by the context. The Product Aggregate defines clear boundaries around product data including details, pricing, and categorization. The Product Catalog Service serves as the aggregate root, ensuring all product modifications maintain consistency and business rules.'}, {'group_name': 'Cart Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Shopping Cart Service'], 'explaination': "I chose the Aggregate pattern for the Shopping Cart Service as recommended by the context. The Cart Aggregate defines boundaries around cart items and quantities, with the Shopping Cart Service as the aggregate root ensuring that cart modifications (add, remove, update) maintain consistency for each user's shopping cart."}, {'group_name': 'Inventory Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Inventory Service'], 'explaination': 'I chose the Aggregate pattern for the Inventory Service as recommended by the context. The Inventory Aggregate ensures transactional consistency for inventory levels, reservations, and commitments. The Inventory Service acts as the aggregate root, preventing race conditions and overselling by managing all inventory state changes atomically.'}], 'datastore': [{'datastore_name': 'Product Catalog Database', 'associated_microservices': ['Product Catalog Service'], 'description': 'Stores product information including names, descriptions, prices, categories, and images. Supports User Stories 1, 4, 14, and 18 for browsing products, viewing details, and admin operations. Uses a relational database to manage product catalog with efficient querying and CRUD operations.'}, {'datastore_name': 'Shopping Cart Database', 'associated_microservices': ['Shopping Cart Service'], 'description': 'Stores shopping cart state for each user including cart items, product IDs, and quantities. Supports User Stories 2 and 15 for adding and removing items from cart. Uses a key-value or document database for fast cart operations with user_id as the key.'}, {'datastore_name': 'Recommendation Event Store', 'associated_microservices': ['Recommendation Service'], 'description': 'Event sourcing database storing all user browsing and purchase behavior events. Supports User Stories 3 and 11 for personalized recommendations. Also maintains a CQRS read model with pre-computed recommendations for fast query performance. Uses event store for write operations and optimized read database for queries.'}, {'datastore_name': 'Checkout Database', 'associated_microservices': ['Checkout Service'], 'description': 'Stores checkout sessions, order aggregates, and transaction state for saga orchestration. Supports User Stories 5, 17, and 22 for order placement, cost calculation, and duplicate prevention. Uses relational database with idempotency keys to prevent duplicate orders and maintain order consistency.'}, {'datastore_name': 'Payment Transaction Database', 'associated_microservices': ['Payment Service'], 'description': 'Stores payment transactions, transaction IDs, payment methods, and status. Supports User Story 9 for processing multiple payment methods. Uses a secure relational database with strong consistency guarantees for financial transactions and audit trails.'}, {'datastore_name': 'Email Notification Database', 'associated_microservices': ['Email Notification Service'], 'description': 'Stores notification queue, delivery status, and email templates. Supports User Stories 6, 12, and 24 for order confirmations and promotional emails. Uses a document or queue-based database for reliable email delivery tracking and retry mechanisms.'}, {'datastore_name': 'Shipping Database', 'associated_microservices': ['Shipping Service'], 'description': 'Stores shipment records, tracking numbers, shipping addresses, and status updates. Supports User Stories 7, 8, and 19 for selecting shipping options, tracking shipments, and updating addresses. Uses relational database for managing shipment lifecycle and address information.'}, {'datastore_name': 'Currency Exchange Database', 'associated_microservices': ['Currency Service'], 'description': 'Stores current and historical exchange rates for currency conversion. Supports User Stories 10 and 20 for displaying prices in local currency. Uses a time-series or relational database to store exchange rates with timestamps for accurate conversions.'}, {'datastore_name': 'Inventory Database', 'associated_microservices': ['Inventory Service'], 'description': 'Stores available inventory levels, reservations, and stock movements. Supports User Story 13 for preventing overselling. Uses a relational database with strong consistency and locking mechanisms to handle concurrent inventory operations and prevent race conditions in the saga pattern.'}, {'datastore_name': 'Order History Event Store', 'associated_microservices': ['Order History Service'], 'description': 'Event sourcing database storing all order-related events and state changes. Supports User Story 21 for reviewing and reordering past purchases. Maintains both an event store for complete order history and a CQRS read model optimized for querying past orders efficiently.'}, {'datastore_name': 'Advertising Database', 'associated_microservices': ['Advertising Service'], 'description': 'Stores ad content, targeting criteria, user segments, and impression tracking. Supports User Story 16 for displaying targeted ads based on browsing habits. Uses a document database for flexible ad content storage and fast retrieval based on user profiles.'}, {'datastore_name': 'Analytics Event Store', 'associated_microservices': ['Analytics &amp; Reporting Service'], 'description': 'Event sourcing database ingesting business events from all services for analytics. Supports User Story 23 for generating sales reports. Maintains both an event store for historical data and CQRS read models with materialized views for efficient report generation without impacting operational services.'}]}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Product Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": ["category", "search_query", "page", "page_size"], "outputs": ["product_list"], "description": "Retrieves a list of products, optionally filtered by category or search query, with pagination."}, {"name": "/products/{product_id}", "method": "GET", "inputs": ["product_id"], "outputs": ["product_details"], "description": "Retrieves detailed information for a specific product."}, {"name": "/products", "method": "POST", "inputs": ["product_data"], "outputs": ["created_product"], "description": "Creates a new product in the catalog."}, {"name": "/products/{product_id}", "method": "PUT", "inputs": ["product_id", "product_data"], "outputs": ["updated_product"], "description": "Updates details for an existing product."}, {"name": "/products/{product_id}", "method": "DELETE", "inputs": ["product_id"], "outputs": ["deletion_result"], "description": "Deletes a product from the catalog."}], "user_stories": ["1", "8", "9"], "parameters": ["product_id", "product_data", "category", "search_query", "page", "page_size"], "description": "Manages the product catalog, including browsing, updating product details, and managing catalog listings."}, {"name": "Shopping Assistant Service", "endpoints": [{"name": "/assistant/add-to-cart", "method": "POST", "inputs": ["user_id", "product_id", "quantity"], "outputs": ["cart_status"], "description": "Assists the customer in adding items to their cart."}, {"name": "/assistant/inquiry", "method": "POST", "inputs": ["user_id", "message"], "outputs": ["assistant_response"], "description": "Handles customer inquiries and provides assistance."}], "user_stories": ["2", "11"], "parameters": ["user_id", "product_id", "quantity", "message"], "description": "Assists customers in adding items to their cart and handles customer inquiries."}, {"name": "Recommendation Service", "endpoints": [{"name": "/recommendations", "method": "GET", "inputs": ["user_id", "context"], "outputs": ["recommended_products"], "description": "Provides personalized product recommendations for a user."}], "user_stories": ["3"], "parameters": ["user_id", "context"], "description": "Provides personalized product recommendations to customers."}, {"name": "Cart and Checkout Service", "endpoints": [{"name": "/cart", "method": "GET", "inputs": ["user_id"], "outputs": ["cart_contents"], "description": "Retrieves the current contents of the user's cart."}, {"name": "/cart", "method": "POST", "inputs": ["user_id", "product_id", "quantity"], "outputs": ["cart_status"], "description": "Adds an item to the user's cart."}, {"name": "/cart/{product_id}", "method": "DELETE", "inputs": ["user_id", "product_id"], "outputs": ["cart_status"], "description": "Removes an item from the user's cart."}, {"name": "/checkout", "method": "POST", "inputs": ["user_id", "payment_info", "shipping_option", "discount_code"], "outputs": ["order_confirmation"], "description": "Processes the checkout and places an order for the items in the cart."}], "user_stories": ["2", "4", "14"], "parameters": ["user_id", "product_id", "quantity", "payment_info", "shipping_option", "discount_code"], "description": "Handles cart management, checkout process, order placement, and applying discount codes."}, {"name": "Order Management Service", "endpoints": [{"name": "/orders", "method": "GET", "inputs": ["user_id"], "outputs": ["order_history"], "description": "Retrieves the order history for a user."}, {"name": "/orders/{order_id}", "method": "GET", "inputs": ["order_id"], "outputs": ["order_details"], "description": "Retrieves details and status for a specific order."}, {"name": "/orders", "method": "POST", "inputs": ["order_data"], "outputs": ["order_created"], "description": "Creates a new order record."}, {"name": "/orders/{order_id}/status", "method": "PUT", "inputs": ["order_id", "status"], "outputs": ["order_status_updated"], "description": "Updates the status of an order."}], "user_stories": ["4", "8"], "parameters": ["user_id", "order_id", "order_data", "status"], "description": "Manages order processing, order history, and order status tracking."}, {"name": "Email Notification Service", "endpoints": [{"name": "/notifications/order-confirmation", "method": "POST", "inputs": ["user_id", "order_id", "email"], "outputs": ["notification_status"], "description": "Sends order confirmation emails to customers."}, {"name": "/notifications/promotional", "method": "POST", "inputs": ["user_id", "email", "preferences"], "outputs": ["notification_status"], "description": "Sends personalized promotional emails based on user preferences."}], "user_stories": ["5", "10"], "parameters": ["user_id", "order_id", "email", "preferences"], "description": "Sends confirmation emails after orders and personalized promotional emails based on user preferences."}, {"name": "Shipping Service", "endpoints": [{"name": "/shipping/options", "method": "GET", "inputs": ["user_id", "cart_id", "address"], "outputs": ["shipping_options"], "description": "Retrieves available shipping options during checkout."}, {"name": "/shipping/{order_id}/track", "method": "GET", "inputs": ["order_id"], "outputs": ["shipment_status"], "description": "Tracks the shipment status for a given order."}, {"name": "/shipping/{order_id}", "method": "POST", "inputs": ["order_id", "shipping_option", "address"], "outputs": ["shipping_confirmation"], "description": "Initiates shipping for an order."}], "user_stories": ["6", "8"], "parameters": ["user_id", "cart_id", "address", "order_id", "shipping_option"], "description": "Manages shipping options during checkout and tracks shipment status."}, {"name": "Inventory Service", "endpoints": [{"name": "/inventory/{product_id}", "method": "GET", "inputs": ["product_id"], "outputs": ["inventory_level"], "description": "Retrieves the current inventory level for a product."}, {"name": "/inventory/{product_id}", "method": "PUT", "inputs": ["product_id", "quantity_change"], "outputs": ["inventory_update_status"], "description": "Updates the inventory level for a product."}], "user_stories": ["7"], "parameters": ["product_id", "quantity_change"], "description": "Manages inventory for each product in the catalog."}, {"name": "Review and Feedback Service", "endpoints": [{"name": "/reviews", "method": "POST", "inputs": ["user_id", "product_id", "rating", "review_text"], "outputs": ["review_status"], "description": "Allows a customer to submit a review for a product."}, {"name": "/reviews/{product_id}", "method": "GET", "inputs": ["product_id"], "outputs": ["reviews"], "description": "Retrieves all reviews for a specific product."}], "user_stories": ["12"], "parameters": ["user_id", "product_id", "rating", "review_text"], "description": "Allows customers to review products and provide feedback after purchase."}, {"name": "Reporting and Analytics Service", "endpoints": [{"name": "/reports/sales", "method": "GET", "inputs": ["date_range", "filters"], "outputs": ["sales_report"], "description": "Generates sales reports for admins."}, {"name": "/reports/order-trends", "method": "GET", "inputs": ["date_range", "filters"], "outputs": ["order_trends"], "description": "Monitors order trends for admins."}], "user_stories": ["13"], "parameters": ["date_range", "filters"], "description": "Monitors order trends and generates sales reports for admins."}], "patterns": [{"group_name": "Database per Service Pattern", "implementation_pattern": "database per service", "involved_microservices": ["Product Catalog Service", "Shopping Assistant Service", "Recommendation Service", "Cart and Checkout Service", "Order Management Service", "Email Notification Service", "Shipping Service", "Inventory Service", "Review and Feedback Service", "Reporting and Analytics Service"], "explaination": "Each microservice manages its own data and database, ensuring loose coupling and independent scaling. This is based on the context recommendation and the need for service autonomy."}, {"group_name": "Order Placement Saga", "implementation_pattern": "saga", "involved_microservices": ["Cart and Checkout Service", "Order Management Service", "Inventory Service", "Shipping Service"], "explaination": "Order placement and fulfillment is a distributed transaction involving multiple services (cart, order, inventory, shipping). Saga ensures eventual consistency across these services, as recommended in the context."}, {"group_name": "Order and Product Aggregates", "implementation_pattern": "aggregate", "involved_microservices": ["Product Catalog Service", "Shopping Assistant Service", "Recommendation Service", "Cart and Checkout Service", "Order Management Service", "Shipping Service", "Inventory Service", "Review and Feedback Service"], "explaination": "Each service encapsulates its business logic and data consistency boundaries as aggregates, as suggested in the context for encapsulating business logic."}, {"group_name": "Domain Events for Notifications and Analytics", "implementation_pattern": "domain event", "involved_microservices": ["Product Catalog Service", "Recommendation Service", "Cart and Checkout Service", "Order Management Service", "Email Notification Service", "Shipping Service", "Inventory Service", "Review and Feedback Service", "Reporting and Analytics Service"], "explaination": "Domain events are published when significant business actions occur (e.g., order placed, shipped), enabling other services (like notifications and analytics) to react. This is based on the context's recommendation for event-driven communication."}, {"group_name": "Reporting and Analytics CQRS", "implementation_pattern": "cqrs", "involved_microservices": ["Reporting and Analytics Service"], "explaination": "Reporting and Analytics requires efficient querying and separation of read/write models, as recommended in the context for CQRS."}, {"group_name": "Order History API Composition", "implementation_pattern": "api composition", "involved_microservices": ["Order Management Service", "Shipping Service", "Product Catalog Service", "Reporting and Analytics Service"], "explaination": "Order history and tracking require data from multiple services. API Composition aggregates data from these services for complex queries, as recommended in the context."}], "datastore": [{"datastore_name": "Product Catalog Database", "associated_microservices": ["Product Catalog Service"], "description": "Stores product details, categories, and catalog listings. Required for browsing and managing products (user stories 1, 8, 9)."}, {"datastore_name": "Shopping Assistant Database", "associated_microservices": ["Shopping Assistant Service"], "description": "Stores assistant session data, customer inquiries, and cart assistance logs. Needed for assisting with cart actions and inquiries (user stories 2, 11)."}, {"datastore_name": "Recommendation Database", "associated_microservices": ["Recommendation Service"], "description": "Stores user profiles, recommendation models, and interaction logs. Needed for providing personalized recommendations (user story 3)."}, {"datastore_name": "Cart and Checkout Database", "associated_microservices": ["Cart and Checkout Service"], "description": "Stores cart contents, checkout sessions, and discount codes. Needed for cart management, checkout, and discounts (user stories 2, 4, 14)."}, {"datastore_name": "Order Management Database", "associated_microservices": ["Order Management Service"], "description": "Stores order records, statuses, and order history. Needed for order processing and history (user stories 4, 8)."}, {"datastore_name": "Email Notification Database", "associated_microservices": ["Email Notification Service"], "description": "Stores email templates, notification logs, and user preferences. Needed for sending order confirmations and promotional emails (user stories 5, 10)."}, {"datastore_name": "Shipping Database", "associated_microservices": ["Shipping Service"], "description": "Stores shipping options, shipment records, and tracking statuses. Needed for managing shipping and tracking (user stories 6, 8)."}, {"datastore_name": "Inventory Database", "associated_microservices": ["Inventory Service"], "description": "Stores inventory levels for products. Needed for inventory management (user story 7)."}, {"datastore_name": "Review and Feedback Database", "associated_microservices": ["Review and Feedback Service"], "description": "Stores product reviews and customer feedback. Needed for review and feedback functionality (user story 12)."}, {"datastore_name": "Reporting and Analytics Database", "associated_microservices": ["Reporting and Analytics Service"], "description": "Stores aggregated sales data, order trends, and analytics materialized views. Needed for reporting and analytics (user story 13)."}]}</t>
+          <t>{'microservices': [{'name': 'Product Catalog Service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['category', 'search_query', 'page', 'limit'], 'outputs': ['product_list'], 'description': 'Retrieves list of products from catalog with optional filtering and pagination'}, {'name': '/products/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['product_details'], 'description': 'Retrieves detailed information about a specific product'}, {'name': '/products', 'method': 'POST', 'inputs': ['product_name', 'description', 'price', 'category', 'inventory_count'], 'outputs': ['product_id', 'creation_status'], 'description': 'Creates a new product in the catalog (admin only)'}, {'name': '/products/{product_id}', 'method': 'PUT', 'inputs': ['product_id', 'product_name', 'description', 'price', 'category', 'inventory_count'], 'outputs': ['update_status'], 'description': 'Updates existing product details (admin only)'}, {'name': '/products/{product_id}', 'method': 'DELETE', 'inputs': ['product_id'], 'outputs': ['deletion_status'], 'description': 'Removes a product from the catalog (admin only)'}, {'name': '/products/{product_id}/inventory', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['inventory_count'], 'description': 'Retrieves current inventory level for a product'}, {'name': '/products/{product_id}/inventory', 'method': 'PUT', 'inputs': ['product_id', 'quantity_change'], 'outputs': ['new_inventory_count', 'update_status'], 'description': 'Updates inventory level for a product'}], 'user_stories': ['As a customer, I want to browse the product catalog so that I can choose items to purchase.', 'As a system, I want to manage inventory for each product in the catalog.', 'As an admin, I want to update product details and manage catalog listings.'], 'parameters': ['product_id', 'product_name', 'description', 'price', 'category', 'inventory_count', 'last_updated'], 'description': 'Manages product information, catalog listings, inventory levels, and product details. Handles CRUD operations for products.'}, {'name': 'Shopping Cart Service', 'endpoints': [{'name': '/cart/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['cart_items', 'total_amount'], 'description': "Retrieves all items in a customer's shopping cart"}, {'name': '/cart/{customer_id}/items', 'method': 'POST', 'inputs': ['customer_id', 'product_id', 'quantity'], 'outputs': ['cart_item_id', 'add_status'], 'description': 'Adds an item to the shopping cart'}, {'name': '/cart/{customer_id}/items/{cart_item_id}', 'method': 'PUT', 'inputs': ['customer_id', 'cart_item_id', 'quantity'], 'outputs': ['update_status'], 'description': 'Updates quantity of an item in the cart'}, {'name': '/cart/{customer_id}/items/{cart_item_id}', 'method': 'DELETE', 'inputs': ['customer_id', 'cart_item_id'], 'outputs': ['deletion_status'], 'description': 'Removes an item from the shopping cart'}, {'name': '/cart/{customer_id}/clear', 'method': 'DELETE', 'inputs': ['customer_id'], 'outputs': ['clear_status'], 'description': 'Clears all items from the shopping cart'}], 'user_stories': ['As a customer, I want to add items to my cart with help from a shopping assistant service.'], 'parameters': ['customer_id', 'cart_item_id', 'product_id', 'quantity', 'added_at', 'cart_status'], 'description': 'Manages shopping cart operations including adding, removing, and updating items in customer carts.'}, {'name': 'Recommendation Service', 'endpoints': [{'name': '/recommendations/{customer_id}', 'method': 'GET', 'inputs': ['customer_id', 'limit'], 'outputs': ['recommended_products'], 'description': 'Retrieves personalized product recommendations for a customer'}, {'name': '/recommendations/popular', 'method': 'GET', 'inputs': ['category', 'limit'], 'outputs': ['popular_products'], 'description': 'Retrieves popular products across all customers'}, {'name': '/recommendations/similar/{product_id}', 'method': 'GET', 'inputs': ['product_id', 'limit'], 'outputs': ['similar_products'], 'description': 'Retrieves products similar to a given product'}], 'user_stories': ['As a customer, I want to receive product recommendations so that I can discover relevant items.'], 'parameters': ['customer_id', 'product_id', 'recommendation_score', 'algorithm_version', 'last_updated'], 'description': 'Provides personalized product recommendations based on customer behavior and preferences using materialized views.'}, {'name': 'Order Service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['customer_id', 'cart_id', 'shipping_option_id', 'discount_code', 'payment_details'], 'outputs': ['order_id', 'order_status', 'total_amount'], 'description': 'Creates a new order from the shopping cart and initiates checkout process'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_details', 'order_status', 'items', 'shipping_info'], 'description': 'Retrieves detailed information about a specific order'}, {'name': '/orders/customer/{customer_id}', 'method': 'GET', 'inputs': ['customer_id', 'page', 'limit'], 'outputs': ['order_history'], 'description': 'Retrieves order history for a customer'}, {'name': '/orders/{order_id}/status', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_status', 'tracking_info'], 'description': 'Retrieves current status and tracking information for an order'}, {'name': '/orders/{order_id}/cancel', 'method': 'POST', 'inputs': ['order_id', 'cancellation_reason'], 'outputs': ['cancellation_status'], 'description': 'Cancels an existing order'}, {'name': '/orders/discount/validate', 'method': 'POST', 'inputs': ['discount_code', 'customer_id', 'cart_total'], 'outputs': ['is_valid', 'discount_amount', 'discount_type'], 'description': 'Validates a discount code and returns discount details'}, {'name': '/orders/reports/sales', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'aggregation_level'], 'outputs': ['sales_report', 'trends'], 'description': 'Generates sales reports for admin monitoring (admin only)'}], 'user_stories': ['As a customer, I want to check out and place orders for the items in my cart.', 'As a customer, I want to view my order history and track the status of shipments.', 'As a customer, I want to apply discount codes during checkout.', 'As an admin, I want to monitor order trends and generate sales reports.'], 'parameters': ['order_id', 'customer_id', 'order_status', 'total_amount', 'discount_code', 'discount_amount', 'payment_status', 'created_at', 'updated_at'], 'description': 'Handles order placement, checkout process, order history, discount code application, and order status tracking with event sourcing for audit trail.'}, {'name': 'Shipping Service', 'endpoints': [{'name': '/shipping/options', 'method': 'GET', 'inputs': ['destination_address', 'cart_weight'], 'outputs': ['shipping_options'], 'description': 'Retrieves available shipping options with costs for a destination'}, {'name': '/shipping/calculate', 'method': 'POST', 'inputs': ['destination_address', 'shipping_option_id', 'cart_items'], 'outputs': ['shipping_cost', 'estimated_delivery_date'], 'description': 'Calculates shipping cost for specific items and destination'}, {'name': '/shipping/shipment', 'method': 'POST', 'inputs': ['order_id', 'shipping_option_id', 'destination_address'], 'outputs': ['shipment_id', 'tracking_number'], 'description': 'Creates a new shipment for an order'}, {'name': '/shipping/track/{tracking_number}', 'method': 'GET', 'inputs': ['tracking_number'], 'outputs': ['shipment_status', 'current_location', 'estimated_delivery'], 'description': 'Tracks shipment status using tracking number'}, {'name': '/shipping/shipment/{shipment_id}/status', 'method': 'PUT', 'inputs': ['shipment_id', 'new_status', 'location'], 'outputs': ['update_status'], 'description': 'Updates shipment status (internal use)'}], 'user_stories': ['As a customer, I want to choose from various shipping options during checkout.', 'As a customer, I want to view my order history and track the status of shipments.'], 'parameters': ['shipment_id', 'order_id', 'tracking_number', 'shipping_option_id', 'shipment_status', 'destination_address', 'estimated_delivery_date', 'actual_delivery_date'], 'description': 'Manages shipping options, calculates shipping costs, and tracks shipment status.'}, {'name': 'Notification Service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['customer_id', 'notification_type', 'template_id', 'data'], 'outputs': ['notification_id', 'send_status'], 'description': 'Sends a notification to a customer'}, {'name': '/notifications/{notification_id}/status', 'method': 'GET', 'inputs': ['notification_id'], 'outputs': ['delivery_status', 'sent_at', 'opened_at'], 'description': 'Retrieves status of a sent notification'}, {'name': '/notifications/preferences/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['notification_preferences'], 'description': 'Retrieves notification preferences for a customer'}, {'name': '/notifications/preferences/{customer_id}', 'method': 'PUT', 'inputs': ['customer_id', 'email_enabled', 'promotional_enabled', 'order_updates_enabled'], 'outputs': ['update_status'], 'description': 'Updates notification preferences for a customer'}, {'name': '/notifications/promotional', 'method': 'POST', 'inputs': ['target_segment', 'campaign_id', 'template_id'], 'outputs': ['batch_id', 'send_status'], 'description': 'Sends promotional emails to a target customer segment'}], 'user_stories': ['As a customer, I want to receive confirmation emails after placing orders.', 'As a system, I want to send personalized promotional emails based on user preferences.'], 'parameters': ['notification_id', 'customer_id', 'notification_type', 'template_id', 'delivery_status', 'sent_at', 'opened_at', 'email_enabled', 'promotional_enabled'], 'description': 'Sends order confirmation emails, promotional emails, and other customer notifications based on domain events and preferences.'}, {'name': 'Shopping Assistant Service', 'endpoints': [{'name': '/assistant/chat', 'method': 'POST', 'inputs': ['customer_id', 'message', 'conversation_id'], 'outputs': ['response', 'conversation_id', 'suggested_actions'], 'description': 'Handles customer chat messages and provides intelligent responses'}, {'name': '/assistant/conversation/{conversation_id}', 'method': 'GET', 'inputs': ['conversation_id'], 'outputs': ['conversation_history'], 'description': 'Retrieves conversation history for a customer'}, {'name': '/assistant/suggest-products', 'method': 'POST', 'inputs': ['customer_id', 'query', 'preferences'], 'outputs': ['suggested_products', 'explanation'], 'description': 'Suggests products based on customer queries and preferences'}, {'name': '/assistant/add-to-cart', 'method': 'POST', 'inputs': ['customer_id', 'product_id', 'quantity', 'conversation_id'], 'outputs': ['cart_update_status'], 'description': 'Adds suggested products to cart from assistant recommendations'}], 'user_stories': ['As a system, I want to handle customer inquiries using the shopping assistant service.', 'As a customer, I want to add items to my cart with help from a shopping assistant service.'], 'parameters': ['conversation_id', 'customer_id', 'message', 'response', 'timestamp', 'context_data'], 'description': 'Provides intelligent assistance for shopping decisions and handles customer inquiries through conversational interface.'}, {'name': 'Review Service', 'endpoints': [{'name': '/reviews/product/{product_id}', 'method': 'GET', 'inputs': ['product_id', 'page', 'limit', 'sort_by'], 'outputs': ['reviews', 'average_rating', 'rating_distribution'], 'description': 'Retrieves all reviews for a specific product'}, {'name': '/reviews', 'method': 'POST', 'inputs': ['customer_id', 'product_id', 'order_id', 'rating', 'review_text', 'title'], 'outputs': ['review_id', 'submission_status'], 'description': 'Submits a new product review'}, {'name': '/reviews/{review_id}', 'method': 'GET', 'inputs': ['review_id'], 'outputs': ['review_details'], 'description': 'Retrieves details of a specific review'}, {'name': '/reviews/{review_id}', 'method': 'PUT', 'inputs': ['review_id', 'rating', 'review_text', 'title'], 'outputs': ['update_status'], 'description': 'Updates an existing review'}, {'name': '/reviews/{review_id}', 'method': 'DELETE', 'inputs': ['review_id'], 'outputs': ['deletion_status'], 'description': 'Deletes a review'}, {'name': '/reviews/customer/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['customer_reviews'], 'description': 'Retrieves all reviews submitted by a customer'}, {'name': '/reviews/{review_id}/helpful', 'method': 'POST', 'inputs': ['review_id', 'customer_id', 'is_helpful'], 'outputs': ['vote_status'], 'description': 'Marks a review as helpful or not helpful'}], 'user_stories': ['As a customer, I want to review products and provide feedback after purchase.'], 'parameters': ['review_id', 'customer_id', 'product_id', 'order_id', 'rating', 'review_text', 'title', 'created_at', 'helpful_count', 'verified_purchase'], 'description': 'Manages product reviews, ratings, and customer feedback after purchase.'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Product Catalog Service', 'Shopping Cart Service', 'Recommendation Service', 'Order Service', 'Shipping Service', 'Notification Service', 'Shopping Assistant Service', 'Review Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends this approach for all services to ensure loose coupling, independent scalability, and allow each service to choose optimal database technology for its needs. Each service maintains its own data and is responsible for its own persistence.'}, {'group_name': 'Order Checkout Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Order Service', 'Product Catalog Service', 'Shopping Cart Service', 'Shipping Service', 'Notification Service'], 'explaination': 'I chose the saga pattern because the context identifies the order checkout flow as requiring distributed transaction coordination across multiple services: Order Service creates the order, Product Catalog Service reduces inventory, Shipping Service creates shipment, and Notification Service sends confirmation. If any step fails (e.g., insufficient inventory), compensating transactions can rollback the order, ensuring data consistency across services.'}, {'group_name': 'Order Details Aggregation', 'implementation_pattern': 'api composition', 'involved_microservices': ['Order Service', 'Product Catalog Service', 'Shipping Service'], 'explaination': 'I chose API composition pattern because the context recommends it for queries spanning multiple services. When retrieving order history with complete details, the Order Service needs to combine its order data with product details from Product Catalog Service and shipping information from Shipping Service to provide comprehensive order information to customers.'}, {'group_name': 'Product Page Aggregation', 'implementation_pattern': 'api composition', 'involved_microservices': ['Product Catalog Service', 'Review Service'], 'explaination': 'I chose API composition pattern because the context specifically mentions aggregating Product Catalog Service data with Review Service ratings to show complete product information including reviews and ratings on product pages.'}, {'group_name': 'Checkout Summary Aggregation', 'implementation_pattern': 'api composition', 'involved_microservices': ['Shopping Cart Service', 'Shipping Service', 'Order Service'], 'explaination': 'I chose API composition pattern because the context identifies the checkout summary as requiring combination of data from Shopping Cart Service (cart items), Shipping Service (shipping costs), and Order Service (discount validation) to provide complete checkout information.'}, {'group_name': 'Sales Reporting', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Order Service', 'Product Catalog Service', 'Review Service'], 'explaination': 'I chose CQRS pattern because the context recommends it for complex queries and reporting, specifically mentioning admin sales reports. This creates a read-optimized view that aggregates data from Order Service, Product Catalog Service, and Review Service for trend analysis, separating the complex read model from the write model.'}, {'group_name': 'Personalized Recommendations', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Recommendation Service', 'Order Service', 'Product Catalog Service'], 'explaination': 'I chose CQRS pattern because the context specifically recommends maintaining a materialized view combining customer behavior, order history, and product catalog for the Recommendation Service. This allows efficient read operations for recommendation generation while keeping the write models in their respective services.'}, {'group_name': 'Order Event Processing', 'implementation_pattern': 'domain event', 'involved_microservices': ['Order Service', 'Notification Service', 'Shipping Service', 'Product Catalog Service'], 'explaination': "I chose domain event pattern because the context identifies 'Order Placed Event' as triggering multiple actions across services: Notification Service sends confirmation email, Shipping Service creates shipment, and Product Catalog Service updates inventory. This enables loose coupling and event-driven communication."}, {'group_name': 'Review Event Processing', 'implementation_pattern': 'domain event', 'involved_microservices': ['Review Service', 'Product Catalog Service', 'Notification Service'], 'explaination': "I chose domain event pattern because the context mentions 'Product Review Added Event' which updates product ratings in Product Catalog Service and potentially triggers promotional campaigns via Notification Service, demonstrating event-driven communication between services."}, {'group_name': 'Inventory Alert Processing', 'implementation_pattern': 'domain event', 'involved_microservices': ['Product Catalog Service', 'Notification Service'], 'explaination': "I chose domain event pattern because the context identifies 'Inventory Low Event' from Product Catalog Service to notify admins through Notification Service, showing event-driven communication for system alerts."}, {'group_name': 'Order Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Order Service'], 'explaination': 'I chose aggregate pattern because the context specifically recommends treating Order with its line items, payment info, and status as a single aggregate root in Order Service to maintain data consistency within the service boundary and ensure transactional integrity.'}, {'group_name': 'Product Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Product Catalog Service'], 'explaination': 'I chose aggregate pattern because the context recommends managing product details, inventory, and catalog listings as a cohesive unit in Product Catalog Service to ensure consistency within the service boundary.'}, {'group_name': 'Shopping Cart Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Shopping Cart Service'], 'explaination': 'I chose aggregate pattern because the context recommends managing cart items as a transactional boundary in Shopping Cart Service to ensure all cart operations maintain consistency.'}, {'group_name': 'Order History Audit', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Order Service'], 'explaination': 'I chose event sourcing pattern because the context recommends it for Order Service to store all order state changes as events, providing a complete audit trail and ability to reconstruct order history. This is essential for order tracking and compliance requirements.'}, {'group_name': 'Cart Analytics Tracking', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Shopping Cart Service'], 'explaination': 'I chose event sourcing pattern because the context recommends tracking all cart modifications as events for analytics and abandoned cart recovery in Shopping Cart Service, enabling detailed behavioral analysis.'}], 'datastore': [{'datastore_name': 'Product Catalog Database', 'associated_microservices': ['Product Catalog Service'], 'description': 'Stores product information, catalog listings, inventory levels, and product details. Supports user stories for browsing catalog, managing inventory, and updating product details. Uses aggregate pattern to maintain product consistency.'}, {'datastore_name': 'Shopping Cart Database', 'associated_microservices': ['Shopping Cart Service'], 'description': 'Stores customer shopping cart items and cart state. Implements event sourcing to track all cart modifications for analytics and abandoned cart recovery. Supports user story for adding items to cart with shopping assistant.'}, {'datastore_name': 'Recommendation Database', 'associated_microservices': ['Recommendation Service'], 'description': 'Stores recommendation algorithms, customer preferences, and materialized views combining customer behavior and order history. Implements CQRS pattern with read-optimized views for efficient recommendation generation. Supports user story for personalized recommendations.'}, {'datastore_name': 'Order Database', 'associated_microservices': ['Order Service'], 'description': 'Stores order information, order history, discount codes, and payment details using event sourcing for complete audit trail. Maintains order aggregates for consistency. Supports user stories for checkout, order history, discount codes, and sales reporting. Includes both event store for sourcing and read models for CQRS queries.'}, {'datastore_name': 'Shipping Database', 'associated_microservices': ['Shipping Service'], 'description': 'Stores shipping options, costs, shipment tracking information, and delivery status. Supports user stories for choosing shipping options and tracking shipments.'}, {'datastore_name': 'Notification Database', 'associated_microservices': ['Notification Service'], 'description': 'Stores notification logs, customer notification preferences, email templates, and delivery status. Supports user stories for order confirmation emails and personalized promotional emails based on preferences.'}, {'datastore_name': 'Shopping Assistant Database', 'associated_microservices': ['Shopping Assistant Service'], 'description': 'Stores conversation history, customer context, and interaction logs for the shopping assistant. Supports user stories for handling customer inquiries and assisting with cart additions.'}, {'datastore_name': 'Review Database', 'associated_microservices': ['Review Service'], 'description': 'Stores product reviews, ratings, customer feedback, and helpful votes. Supports user story for reviewing products and providing feedback after purchase. Generates domain events when reviews are added.'}]}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Ride Request Service", "endpoints": [{"name": "/rides/request", "method": "POST", "inputs": ["user_id", "pickup_location", "dropoff_location", "scheduled_time"], "outputs": ["ride_id", "status"], "description": "Creates a new ride request, optionally scheduled for a future time."}, {"name": "/rides/{ride_id}/status", "method": "GET", "inputs": ["ride_id"], "outputs": ["status", "driver_id", "eta"], "description": "Retrieves the current status and assigned driver for a ride request."}, {"name": "/rides/{ride_id}/accept", "method": "POST", "inputs": ["ride_id", "driver_id"], "outputs": ["acceptance_status"], "description": "Allows a driver to accept a ride request."}, {"name": "/rides/{ride_id}/decline", "method": "POST", "inputs": ["ride_id", "driver_id"], "outputs": ["decline_status"], "description": "Allows a driver to decline a ride request."}, {"name": "/rides/upcoming", "method": "GET", "inputs": ["driver_id"], "outputs": ["rides"], "description": "Returns a list of upcoming ride requests for a driver."}], "user_stories": ["1", "3", "5", "11", "15", "16"], "parameters": ["ride_id", "user_id", "driver_id", "pickup_location", "dropoff_location", "scheduled_time", "status", "eta"], "description": "Handles creation, scheduling, and management of ride requests, including matching riders with drivers and balancing ride requests among available drivers."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications/send", "method": "POST", "inputs": ["user_id", "notification_type", "message"], "outputs": ["notification_id", "delivery_status"], "description": "Sends a notification to a user."}, {"name": "/notifications/history", "method": "GET", "inputs": ["user_id"], "outputs": ["notifications"], "description": "Retrieves notification history for a user."}], "user_stories": ["2", "6", "14"], "parameters": ["notification_id", "user_id", "notification_type", "message", "delivery_status"], "description": "Sends notifications to users about ride status, arrivals, receipts, and other relevant updates."}, {"name": "Real-Time Location Service", "endpoints": [{"name": "/location/update", "method": "POST", "inputs": ["driver_id", "latitude", "longitude", "timestamp"], "outputs": ["update_status"], "description": "Updates the real-time location of a driver."}, {"name": "/location/track", "method": "GET", "inputs": ["ride_id"], "outputs": ["driver_location", "eta"], "description": "Retrieves the current location and ETA of the driver for a ride."}, {"name": "/location/navigation", "method": "GET", "inputs": ["start_location", "end_location"], "outputs": ["route", "estimated_time"], "description": "Integrates with external map services to provide navigation and routing."}], "user_stories": ["4", "8", "10"], "parameters": ["driver_id", "latitude", "longitude", "timestamp", "ride_id", "route", "estimated_time"], "description": "Tracks and updates real-time locations of drivers and rides, integrates with external map services for navigation and routing, and provides ETA information."}, {"name": "Payment Service", "endpoints": [{"name": "/payments/charge", "method": "POST", "inputs": ["ride_id", "user_id", "amount", "payment_method"], "outputs": ["payment_id", "payment_status"], "description": "Processes payment for a ride."}, {"name": "/payments/payout", "method": "POST", "inputs": ["ride_id", "driver_id", "amount"], "outputs": ["payout_id", "payout_status"], "description": "Processes payout to a driver for a completed ride."}, {"name": "/payments/receipt", "method": "GET", "inputs": ["ride_id"], "outputs": ["receipt"], "description": "Generates and retrieves the receipt for a ride."}], "user_stories": ["12", "13", "14"], "parameters": ["payment_id", "ride_id", "user_id", "driver_id", "amount", "payment_method", "payment_status", "payout_id", "payout_status"], "description": "Handles secure in-app payments for rides, processes driver payouts, and generates/send receipts to users."}, {"name": "Rating and Feedback Service", "endpoints": [{"name": "/feedback/submit", "method": "POST", "inputs": ["ride_id", "user_id", "driver_id", "rating", "comments"], "outputs": ["feedback_id", "submission_status"], "description": "Submits feedback and rating for a completed ride."}, {"name": "/feedback/driver/{driver_id}", "method": "GET", "inputs": ["driver_id"], "outputs": ["ratings", "feedback"], "description": "Retrieves ratings and feedback for a driver."}], "user_stories": ["7"], "parameters": ["feedback_id", "ride_id", "user_id", "driver_id", "rating", "comments", "submission_status"], "description": "Collects and manages rider feedback and driver ratings after trips."}, {"name": "Ride History Service", "endpoints": [{"name": "/history/rides", "method": "GET", "inputs": ["user_id"], "outputs": ["rides"], "description": "Retrieves the ride history for a user."}], "user_stories": ["15"], "parameters": ["user_id", "rides"], "description": "Stores and retrieves history of previous rides for riders."}, {"name": "Availability Service", "endpoints": [{"name": "/availability/set", "method": "POST", "inputs": ["driver_id", "available"], "outputs": ["status"], "description": "Sets the availability status for a driver."}, {"name": "/availability/get", "method": "GET", "inputs": ["driver_id"], "outputs": ["available"], "description": "Gets the current availability status for a driver."}], "user_stories": ["17"], "parameters": ["driver_id", "available", "status"], "description": "Allows drivers to set and update their availability status."}, {"name": "Lost and Found Service", "endpoints": [{"name": "/lostfound/report", "method": "POST", "inputs": ["ride_id", "user_id", "item_description", "contact_info"], "outputs": ["report_id", "report_status"], "description": "Submits a lost-and-found request for an item left in a vehicle."}, {"name": "/lostfound/status", "method": "GET", "inputs": ["report_id"], "outputs": ["report_status", "resolution"], "description": "Checks the status of a lost-and-found report."}], "user_stories": ["18"], "parameters": ["report_id", "ride_id", "user_id", "item_description", "contact_info", "report_status", "resolution"], "description": "Handles lost-and-found requests for items left in vehicles."}, {"name": "User and Driver Management Service", "endpoints": [{"name": "/users/register", "method": "POST", "inputs": ["user_type", "name", "email", "phone", "password", "vehicle_info"], "outputs": ["user_id", "registration_status"], "description": "Registers a new user or driver."}, {"name": "/users/{user_id}", "method": "GET", "inputs": ["user_id"], "outputs": ["user_profile"], "description": "Retrieves the profile of a user or driver."}, {"name": "/users/{user_id}/update", "method": "PUT", "inputs": ["user_id", "profile_updates"], "outputs": ["update_status"], "description": "Updates user or driver profile information."}, {"name": "/users/list", "method": "GET", "inputs": ["admin_id"], "outputs": ["users"], "description": "Allows admin to list all users and drivers."}], "user_stories": ["9", "19"], "parameters": ["user_id", "user_type", "name", "email", "phone", "password", "vehicle_info", "profile_updates", "registration_status", "update_status"], "description": "Manages user and driver accounts, including admin capabilities for monitoring and management."}, {"name": "Customer Support Service", "endpoints": [{"name": "/support/ticket", "method": "POST", "inputs": ["user_id", "issue_type", "description", "ride_id"], "outputs": ["ticket_id", "ticket_status"], "description": "Creates a new customer support ticket."}, {"name": "/support/ticket/{ticket_id}", "method": "GET", "inputs": ["ticket_id"], "outputs": ["ticket_status", "resolution"], "description": "Retrieves the status and resolution of a support ticket."}], "user_stories": ["20"], "parameters": ["ticket_id", "user_id", "issue_type", "description", "ride_id", "ticket_status", "resolution"], "description": "Provides customer support messaging for users experiencing issues."}, {"name": "Service Discovery Service", "endpoints": [{"name": "/services/register", "method": "POST", "inputs": ["service_name", "service_url"], "outputs": ["registration_status"], "description": "Registers a new microservice with the service discovery registry."}, {"name": "/services/list", "method": "GET", "inputs": [], "outputs": ["services"], "description": "Lists all registered microservices."}], "user_stories": [], "parameters": ["service_name", "service_url", "registration_status"], "description": "Enables robust communication and discovery between microservices in the platform."}], "patterns": [{"group_name": "Ride Request Transaction Coordination", "implementation_pattern": "saga", "involved_microservices": ["Ride Request Service", "Payment Service"], "explaination": "Saga is used to coordinate distributed transactions such as ride creation, driver assignment, and payment processing, ensuring consistency across services. This is based on user stories 1, 3, 12, 13, 14, 15, and 16, which require multi-step workflows."}, {"group_name": "Ride Request Domain Logic", "implementation_pattern": "aggregate", "involved_microservices": ["Ride Request Service"], "explaination": "Aggregate pattern is used to encapsulate ride request logic and maintain consistency within the Ride Request Service, as required by user stories 1, 3, 5, 11, 15, and 16."}, {"group_name": "Payment Domain Logic", "implementation_pattern": "aggregate", "involved_microservices": ["Payment Service"], "explaination": "Aggregate pattern ensures payment transactions are consistent within the Payment Service, as required by user stories 12, 13, and 14."}, {"group_name": "Notification Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Notification Service"], "explaination": "Domain Event pattern is used so Notification Service can listen for events (e.g., ride status changes, payment completion) and trigger notifications, as required by user stories 2, 6, and 14."}, {"group_name": "Real-Time Location Event Publishing", "implementation_pattern": "domain event", "involved_microservices": ["Real-Time Location Service"], "explaination": "Domain Event pattern allows Real-Time Location Service to publish location updates to other services, supporting user stories 4, 8, and 10."}, {"group_name": "Rating Feedback Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Rating and Feedback Service"], "explaination": "Domain Event pattern is used so the service can receive trip completion events and prompt for feedback, as required by user story 7."}, {"group_name": "Ride History Data Aggregation", "implementation_pattern": "api composition", "involved_microservices": ["Ride History Service", "Ride Request Service", "Payment Service", "Rating and Feedback Service"], "explaination": "API Composition is used for Ride History Service to aggregate data from Ride Request, Payment, and Rating services to present a complete ride history, as required by user story 15."}, {"group_name": "Ride History Query Optimization", "implementation_pattern": "cqrs", "involved_microservices": ["Ride History Service"], "explaination": "CQRS is used to separate read and write workloads for Ride History Service, optimizing for query performance as required by user story 15."}, {"group_name": "Availability Event Publishing", "implementation_pattern": "domain event", "involved_microservices": ["Availability Service"], "explaination": "Domain Event pattern allows Availability Service to publish driver availability changes to other services, supporting user story 17."}, {"group_name": "Lost and Found Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Lost and Found Service"], "explaination": "Domain Event pattern allows Lost and Found Service to subscribe to ride completion events and trigger lost-and-found workflows, as required by user story 18."}, {"group_name": "User and Driver Aggregate", "implementation_pattern": "aggregate", "involved_microservices": ["User and Driver Management Service"], "explaination": "Aggregate pattern is used to manage user and driver data and related business rules, as required by user stories 9 and 19."}, {"group_name": "Customer Support Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Customer Support Service"], "explaination": "Domain Event pattern allows Customer Support Service to listen for events (e.g., ride issues, lost-and-found requests) and create or update support cases, as required by user story 20."}, {"group_name": "Service Discovery Data Isolation", "implementation_pattern": "database per service", "involved_microservices": ["Service Discovery Service"], "explaination": "Database per service is used for Service Discovery Service to maintain its own registry, as it does not require a data style pattern."}], "datastore": [{"datastore_name": "RideRequestDB", "associated_microservices": ["Ride Request Service"], "description": "Stores all ride requests, their statuses, assignments, and scheduling information. Required for user stories 1, 3, 5, 11, 15, and 16."}, {"datastore_name": "NotificationDB", "associated_microservices": ["Notification Service"], "description": "Stores notification logs and templates for user notifications. Required for user stories 2, 6, and 14."}, {"datastore_name": "LocationDB", "associated_microservices": ["Real-Time Location Service"], "description": "Stores real-time location data for drivers and rides. Required for user stories 4, 8, and 10."}, {"datastore_name": "PaymentDB", "associated_microservices": ["Payment Service"], "description": "Stores payment transactions, payout records, and receipts. Required for user stories 12, 13, and 14."}, {"datastore_name": "FeedbackDB", "associated_microservices": ["Rating and Feedback Service"], "description": "Stores feedback and ratings for drivers and rides. Required for user story 7."}, {"datastore_name": "RideHistoryDB", "associated_microservices": ["Ride History Service"], "description": "Stores ride history records for users, aggregating data from other services. Required for user story 15."}, {"datastore_name": "AvailabilityDB", "associated_microservices": ["Availability Service"], "description": "Stores driver availability status. Required for user story 17."}, {"datastore_name": "LostFoundDB", "associated_microservices": ["Lost and Found Service"], "description": "Stores lost-and-found reports and their statuses. Required for user story 18."}, {"datastore_name": "UserDriverDB", "associated_microservices": ["User and Driver Management Service"], "description": "Stores user and driver profiles, credentials, and admin data. Required for user stories 9 and 19."}, {"datastore_name": "SupportDB", "associated_microservices": ["Customer Support Service"], "description": "Stores support tickets and communication logs. Required for user story 20."}, {"datastore_name": "ServiceRegistryDB", "associated_microservices": ["Service Discovery Service"], "description": "Stores registry of available microservices for service discovery. Required for robust communication as per specifications."}]}</t>
+          <t>{'microservices': [{'name': 'ride-management-service', 'endpoints': [{'name': '/rides', 'method': 'POST', 'inputs': ['rider_id', 'pickup_location', 'destination', 'scheduled_time'], 'outputs': ['ride_id', 'status', 'estimated_fare'], 'description': 'Creates a new ride request from a rider'}, {'name': '/rides/{ride_id}', 'method': 'GET', 'inputs': ['ride_id'], 'outputs': ['ride_details', 'status', 'driver_info', 'rider_info'], 'description': 'Retrieves details of a specific ride'}, {'name': '/rides/{ride_id}/accept', 'method': 'POST', 'inputs': ['ride_id', 'driver_id'], 'outputs': ['acceptance_status', 'ride_details'], 'description': 'Allows driver to accept a ride request'}, {'name': '/rides/{ride_id}/decline', 'method': 'POST', 'inputs': ['ride_id', 'driver_id'], 'outputs': ['decline_status'], 'description': 'Allows driver to decline a ride request'}, {'name': '/rides/{ride_id}/status', 'method': 'PUT', 'inputs': ['ride_id', 'status'], 'outputs': ['updated_status'], 'description': 'Updates the status of a ride (requested, matched, in-progress, completed)'}, {'name': '/rides/history', 'method': 'GET', 'inputs': ['user_id', 'role'], 'outputs': ['ride_history_list'], 'description': 'Retrieves ride history for a rider or driver'}, {'name': '/rides/scheduled', 'method': 'POST', 'inputs': ['rider_id', 'pickup_location', 'destination', 'scheduled_datetime'], 'outputs': ['scheduled_ride_id', 'confirmation'], 'description': 'Schedules a ride in advance'}, {'name': '/rides/driver/{driver_id}/upcoming', 'method': 'GET', 'inputs': ['driver_id'], 'outputs': ['upcoming_rides_list'], 'description': 'Retrieves upcoming ride requests for a driver'}], 'user_stories': ['1', '3', '5', '11', '15', '16'], 'parameters': ['ride_id', 'rider_id', 'driver_id', 'status', 'pickup_location', 'destination', 'scheduled_time', 'fare', 'created_at', 'updated_at'], 'description': 'Handles ride lifecycle including ride requests, scheduling, matching riders with drivers, ride acceptance/decline, ride status tracking, and ride history. Uses event sourcing to maintain complete ride history.'}, {'name': 'notification-service', 'endpoints': [{'name': '/notifications', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'message', 'channel'], 'outputs': ['notification_id', 'delivery_status'], 'description': 'Sends a notification to a user via specified channel'}, {'name': '/notifications/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['notifications_list'], 'description': 'Retrieves notification history for a user'}, {'name': '/notifications/ride-status', 'method': 'POST', 'inputs': ['ride_id', 'status', 'recipient_ids'], 'outputs': ['notification_status'], 'description': 'Sends ride status update notifications to riders and drivers'}, {'name': '/notifications/receipt', 'method': 'POST', 'inputs': ['ride_id', 'user_id', 'payment_details'], 'outputs': ['receipt_sent_status'], 'description': 'Sends payment receipt to user after ride completion'}], 'user_stories': ['2', '6', '14'], 'parameters': ['notification_id', 'user_id', 'notification_type', 'message', 'channel', 'delivery_status', 'timestamp'], 'description': 'Manages all notifications sent to users including ride status updates, arrival alerts, and receipts via push notifications, SMS, or email. Subscribes to domain events from other services.'}, {'name': 'location-tracking-service', 'endpoints': [{'name': '/locations/driver/{driver_id}', 'method': 'POST', 'inputs': ['driver_id', 'latitude', 'longitude', 'timestamp'], 'outputs': ['location_update_status'], 'description': "Updates driver's current location"}, {'name': '/locations/driver/{driver_id}', 'method': 'GET', 'inputs': ['driver_id'], 'outputs': ['latitude', 'longitude', 'timestamp'], 'description': 'Retrieves current location of a driver'}, {'name': '/locations/eta', 'method': 'GET', 'inputs': ['driver_location', 'pickup_location'], 'outputs': ['estimated_arrival_time', 'distance'], 'description': 'Calculates ETA from driver location to pickup location'}, {'name': '/locations/route', 'method': 'GET', 'inputs': ['origin', 'destination'], 'outputs': ['route_data', 'distance', 'duration'], 'description': 'Gets route information from external map service'}, {'name': '/locations/nearby-drivers', 'method': 'GET', 'inputs': ['location', 'radius'], 'outputs': ['available_drivers_list'], 'description': 'Finds available drivers near a location for ride matching'}], 'user_stories': ['4', '8', '10'], 'parameters': ['driver_id', 'latitude', 'longitude', 'timestamp', 'eta', 'route_data', 'availability'], 'description': 'Tracks real-time location of drivers, calculates ETAs, integrates with external map services for navigation and routing. Uses event sourcing to store location updates as events.'}, {'name': 'payment-service', 'endpoints': [{'name': '/payments/calculate-fare', 'method': 'POST', 'inputs': ['ride_id', 'distance', 'duration', 'ride_type'], 'outputs': ['fare_amount', 'breakdown'], 'description': 'Calculates fare for a ride based on distance and duration'}, {'name': '/payments/process', 'method': 'POST', 'inputs': ['ride_id', 'rider_id', 'amount', 'payment_method'], 'outputs': ['payment_id', 'transaction_status', 'receipt'], 'description': 'Processes payment from rider for completed ride'}, {'name': '/payments/{payment_id}', 'method': 'GET', 'inputs': ['payment_id'], 'outputs': ['payment_details', 'status'], 'description': 'Retrieves payment details'}, {'name': '/payments/payout', 'method': 'POST', 'inputs': ['driver_id', 'ride_id', 'amount'], 'outputs': ['payout_id', 'payout_status'], 'description': 'Processes payout to driver for completed ride'}, {'name': '/payments/receipt/{ride_id}', 'method': 'GET', 'inputs': ['ride_id'], 'outputs': ['receipt_details'], 'description': 'Generates and retrieves receipt for a completed ride'}], 'user_stories': ['12', '13', '14'], 'parameters': ['payment_id', 'ride_id', 'rider_id', 'driver_id', 'amount', 'payment_method', 'transaction_status', 'payout_status'], 'description': 'Handles secure payment processing, fare calculation, driver payouts, and receipt generation for completed rides.'}, {'name': 'rating-feedback-service', 'endpoints': [{'name': '/ratings', 'method': 'POST', 'inputs': ['ride_id', 'rater_id', 'ratee_id', 'rating', 'feedback'], 'outputs': ['rating_id', 'submission_status'], 'description': 'Submits rating and feedback after a ride'}, {'name': '/ratings/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['average_rating', 'ratings_list'], 'description': 'Retrieves ratings for a user or driver'}, {'name': '/ratings/ride/{ride_id}', 'method': 'GET', 'inputs': ['ride_id'], 'outputs': ['ride_ratings'], 'description': 'Retrieves ratings associated with a specific ride'}], 'user_stories': ['7'], 'parameters': ['rating_id', 'ride_id', 'rater_id', 'ratee_id', 'rating', 'feedback', 'timestamp'], 'description': 'Manages post-ride ratings and feedback collection from riders and drivers.'}, {'name': 'user-management-service', 'endpoints': [{'name': '/users/register', 'method': 'POST', 'inputs': ['email', 'password', 'name', 'phone', 'role'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user or driver'}, {'name': '/users/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_info'], 'description': 'Authenticates user and returns token'}, {'name': '/users/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile'], 'description': 'Retrieves user profile information'}, {'name': '/users/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'profile_data'], 'outputs': ['update_status'], 'description': 'Updates user profile information'}, {'name': '/drivers/{driver_id}/availability', 'method': 'PUT', 'inputs': ['driver_id', 'availability_status'], 'outputs': ['status_update_confirmation'], 'description': 'Updates driver availability status'}, {'name': '/drivers/{driver_id}/availability', 'method': 'GET', 'inputs': ['driver_id'], 'outputs': ['availability_status'], 'description': 'Retrieves driver availability status'}, {'name': '/admin/users', 'method': 'GET', 'inputs': ['filters', 'pagination'], 'outputs': ['users_list'], 'description': 'Admin endpoint to retrieve and manage all users'}, {'name': '/admin/users/{user_id}', 'method': 'DELETE', 'inputs': ['user_id', 'admin_id'], 'outputs': ['deletion_status'], 'description': 'Admin endpoint to delete or deactivate a user'}], 'user_stories': ['17', '19'], 'parameters': ['user_id', 'email', 'password', 'name', 'phone', 'role', 'availability_status', 'auth_token', 'profile_data'], 'description': 'Manages user and driver profiles, authentication, authorization, availability status, and admin user management functions. Uses CQRS for optimized admin queries.'}, {'name': 'monitoring-admin-service', 'endpoints': [{'name': '/admin/rides/active', 'method': 'GET', 'inputs': ['filters'], 'outputs': ['active_rides_list'], 'description': 'Retrieves all rides currently in progress for monitoring'}, {'name': '/admin/dashboard/metrics', 'method': 'GET', 'inputs': ['time_range'], 'outputs': ['aggregated_metrics'], 'description': 'Retrieves aggregated metrics for admin dashboard'}, {'name': '/support/lost-found', 'method': 'POST', 'inputs': ['ride_id', 'user_id', 'description', 'item_details'], 'outputs': ['request_id', 'status'], 'description': 'Creates a lost-and-found request'}, {'name': '/support/lost-found/{request_id}', 'method': 'GET', 'inputs': ['request_id'], 'outputs': ['request_details', 'status'], 'description': 'Retrieves lost-and-found request details'}, {'name': '/support/messages', 'method': 'POST', 'inputs': ['user_id', 'message', 'issue_type'], 'outputs': ['ticket_id', 'response'], 'description': 'Creates a customer support ticket'}, {'name': '/support/messages/{ticket_id}', 'method': 'GET', 'inputs': ['ticket_id'], 'outputs': ['ticket_details', 'conversation_history'], 'description': 'Retrieves support ticket and conversation history'}, {'name': '/support/messages/{ticket_id}/reply', 'method': 'POST', 'inputs': ['ticket_id', 'admin_id', 'message'], 'outputs': ['reply_status'], 'description': 'Admin replies to a support ticket'}], 'user_stories': ['9', '18', '20'], 'parameters': ['ticket_id', 'request_id', 'ride_id', 'user_id', 'admin_id', 'message', 'issue_type', 'status', 'metrics'], 'description': 'Provides admin dashboard for monitoring rides in progress, handling lost-and-found requests, and customer support messaging. Uses CQRS for optimized dashboard queries.'}], 'patterns': [{'group_name': 'Microservices Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['ride-management-service', 'notification-service', 'location-tracking-service', 'payment-service', 'rating-feedback-service', 'user-management-service', 'monitoring-admin-service'], 'explaination': 'I chose database per service pattern because each microservice manages distinct domain data and needs to be independently deployable and scalable. This ensures loose coupling between services and allows different services to use different data storage technologies suited to their needs (e.g., geospatial databases for location-tracking, ACID-compliant databases for payment).'}, {'group_name': 'Ride Request Flow Orchestration', 'implementation_pattern': 'saga', 'involved_microservices': ['ride-management-service', 'user-management-service', 'location-tracking-service', 'notification-service'], 'explaination': 'I chose the saga pattern for the ride request flow because it requires coordination across multiple services: verifying user in user-management-service, finding available drivers in location-tracking-service, creating ride in ride-management-service, and notifying driver via notification-service. This distributed transaction needs to maintain consistency across services while handling failures gracefully.'}, {'group_name': 'Payment Processing Workflow', 'implementation_pattern': 'saga', 'involved_microservices': ['payment-service', 'ride-management-service', 'notification-service', 'user-management-service'], 'explaination': 'I chose the saga pattern for payment processing because it involves a multi-step transaction: processing payment in payment-service, updating ride status in ride-management-service, sending receipt via notification-service, and updating driver earnings in user-management-service. Each step must be coordinated and compensating actions must be available if any step fails.'}, {'group_name': 'Location History and Tracking', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['location-tracking-service'], 'explaination': 'I chose event sourcing for location-tracking-service because it needs to store location updates as immutable events for accurate ETA calculations, replay capability, and maintaining a complete audit trail of driver movements. This pattern is particularly useful for user stories 4 and 10 which require real-time tracking and ETA updates.'}, {'group_name': 'Ride Lifecycle Management', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['ride-management-service'], 'explaination': 'I chose event sourcing for ride-management-service to maintain complete ride lifecycle history as events (requested → matched → in-progress → completed). This supports user stories 1, 5, 15, and 16 by enabling ride history queries and providing an audit trail of all ride state changes.'}, {'group_name': 'Cross-Service Event Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['ride-management-service', 'location-tracking-service', 'payment-service', 'rating-feedback-service', 'user-management-service', 'notification-service', 'monitoring-admin-service'], 'explaination': 'I chose domain event pattern to enable loose coupling between services. Services publish events for ride state changes, location updates, payment completion, rating submission, and driver availability changes. This allows notification-service and monitoring-admin-service to react to events from other services without direct dependencies.'}, {'group_name': 'Admin Dashboard Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['monitoring-admin-service'], 'explaination': 'I chose CQRS for monitoring-admin-service because it needs read-optimized views aggregating data from multiple services for dashboards (user story 9). The read model is optimized for complex queries across rides, users, and drivers, while write operations for support tickets remain separate.'}, {'group_name': 'User Management Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['user-management-service'], 'explaination': 'I chose CQRS for user-management-service because admin queries across all users and drivers (user story 19) benefit from materialized read views that are optimized differently than write operations for user registration and profile updates.'}, {'group_name': 'Ride Domain Model', 'implementation_pattern': 'aggregate', 'involved_microservices': ['ride-management-service'], 'explaination': 'I chose the aggregate pattern to define the Ride aggregate as the consistency boundary within ride-management-service. The Ride aggregate encapsulates ride status, rider reference, driver reference, and ensures that all ride state transitions maintain invariants.'}, {'group_name': 'Payment Domain Model', 'implementation_pattern': 'aggregate', 'involved_microservices': ['payment-service'], 'explaination': 'I chose the aggregate pattern to define the Payment aggregate which ensures transactional consistency for payment processing, fare calculations, and payout operations within the payment-service boundary.'}, {'group_name': 'User and Driver Domain Model', 'implementation_pattern': 'aggregate', 'involved_microservices': ['user-management-service'], 'explaination': 'I chose the aggregate pattern to define User and Driver aggregates which maintain consistency for profile data, authentication credentials, and availability status within user-management-service.'}, {'group_name': 'Rating Domain Model', 'implementation_pattern': 'aggregate', 'involved_microservices': ['rating-feedback-service'], 'explaination': 'I chose the aggregate pattern to define the Rating aggregate which maintains consistency for ratings and feedback associated with rides, ensuring that ratings are properly linked to both rater and ratee.'}, {'group_name': 'Location Domain Model', 'implementation_pattern': 'aggregate', 'involved_microservices': ['location-tracking-service'], 'explaination': 'I chose the aggregate pattern to define location-related aggregates that maintain consistency for driver location data and ensure that location updates are properly validated and stored.'}], 'datastore': [{'datastore_name': 'ride_management_db', 'associated_microservices': ['ride-management-service'], 'description': 'Event-sourced database storing ride events and current ride state. Supports user stories 1, 3, 5, 11, 15, 16 by maintaining complete ride lifecycle history including requests, scheduling, matching, status tracking, and ride history queries. Uses event sourcing to store all ride state changes as immutable events.'}, {'datastore_name': 'notification_db', 'associated_microservices': ['notification-service'], 'description': 'Database storing notification history and delivery status. Supports user stories 2, 6, 14 by tracking all notifications sent to users including ride status updates, arrival alerts, and receipts across multiple channels (push, SMS, email).'}, {'datastore_name': 'location_tracking_db', 'associated_microservices': ['location-tracking-service'], 'description': 'Geospatial event-sourced database storing driver location events and ETA calculations. Supports user stories 4, 8, 10 by maintaining real-time location updates as events, enabling replay for ETA calculations and providing historical location data for analytics. Optimized for geospatial queries to find nearby drivers.'}, {'datastore_name': 'payment_db', 'associated_microservices': ['payment-service'], 'description': 'ACID-compliant transactional database storing payment transactions, fare calculations, and payout records. Supports user stories 12, 13, 14 by ensuring secure payment processing, maintaining financial transaction integrity, and storing receipt information.'}, {'datastore_name': 'rating_feedback_db', 'associated_microservices': ['rating-feedback-service'], 'description': 'Database storing ratings and feedback from riders and drivers. Supports user story 7 by maintaining post-ride ratings, feedback text, and calculating average ratings for users and drivers.'}, {'datastore_name': 'user_management_db', 'associated_microservices': ['user-management-service'], 'description': 'Database with write and read models (CQRS) storing user profiles, driver profiles, authentication credentials, and availability status. Supports user stories 17 and 19 by maintaining user data and providing optimized read views for admin queries across all users and drivers.'}, {'datastore_name': 'monitoring_admin_db', 'associated_microservices': ['monitoring-admin-service'], 'description': 'Read-optimized database (CQRS) storing materialized views aggregated from multiple services for dashboard queries, plus support ticket and lost-and-found request data. Supports user stories 9, 18, 20 by enabling efficient monitoring of active rides, handling lost-and-found requests, and managing customer support conversations.'}]}</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Train Schedule Service", "endpoints": [{"name": "/trains/search", "method": "GET", "inputs": ["origin", "destination", "date", "time"], "outputs": ["list of available trains"], "description": "Searches for available trains based on origin, destination, date, and time."}, {"name": "/trains/{trainId}/status", "method": "GET", "inputs": ["trainId"], "outputs": ["train status"], "description": "Retrieves the current status of a specific train."}, {"name": "/trains/{trainId}/availability", "method": "GET", "inputs": ["trainId", "date"], "outputs": ["seat availability"], "description": "Checks seat availability for a specific train on a given date."}, {"name": "/trains/{trainId}/status", "method": "PUT", "inputs": ["trainId", "status"], "outputs": ["update result"], "description": "Updates the status of a train (e.g., delayed, on time)."}], "user_stories": ["1", "7", "11"], "parameters": ["trainId", "origin", "destination", "date", "time", "status"], "description": "Handles searching and retrieving available train schedules, including train availability and status updates."}, {"name": "Booking Service", "endpoints": [{"name": "/bookings", "method": "POST", "inputs": ["userId", "trainId", "date", "seatClass", "seatPreference", "contactId", "paymentInfo"], "outputs": ["booking confirmation", "bookingId"], "description": "Creates a new booking for a user, including seat selection and payment initiation."}, {"name": "/bookings/{bookingId}/cancel", "method": "POST", "inputs": ["bookingId", "userId"], "outputs": ["cancellation result"], "description": "Cancels an existing booking."}, {"name": "/bookings/{bookingId}", "method": "GET", "inputs": ["bookingId", "userId"], "outputs": ["booking details"], "description": "Retrieves details of a specific booking."}, {"name": "/bookings/{bookingId}/seat", "method": "PUT", "inputs": ["bookingId", "seatPreference", "seatClass"], "outputs": ["seat selection result"], "description": "Updates seat selection for an existing booking."}, {"name": "/bookings/user/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["list of bookings"], "description": "Retrieves all bookings for a specific user."}], "user_stories": ["2", "6", "8", "9", "13", "14"], "parameters": ["bookingId", "userId", "trainId", "date", "seatClass", "seatPreference", "contactId", "paymentInfo"], "description": "Manages ticket booking, cancellation, seat selection, and booking confirmation processes."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications/send", "method": "POST", "inputs": ["userId", "type", "message", "bookingId"], "outputs": ["notification result"], "description": "Sends a notification to a user about booking, schedule changes, or delays."}, {"name": "/notifications/logs/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["notification logs"], "description": "Retrieves notification logs for a user."}], "user_stories": ["3", "7", "9"], "parameters": ["userId", "type", "message", "bookingId"], "description": "Sends notifications to users about bookings, schedule changes, delays, and confirmations via email or messages."}, {"name": "User Profile Service", "endpoints": [{"name": "/users/{userId}/profile", "method": "GET", "inputs": ["userId"], "outputs": ["user profile"], "description": "Retrieves the profile of a user."}, {"name": "/users/{userId}/profile", "method": "PUT", "inputs": ["userId", "profileData"], "outputs": ["update result"], "description": "Updates the profile and personal data of a user."}, {"name": "/users/{userId}/contacts", "method": "GET", "inputs": ["userId"], "outputs": ["frequent contacts"], "description": "Retrieves frequent contacts for a user."}, {"name": "/users/{userId}/contacts", "method": "POST", "inputs": ["userId", "contactData"], "outputs": ["add contact result"], "description": "Adds a frequent contact for a user."}], "user_stories": ["4", "10", "15"], "parameters": ["userId", "profileData", "contactData"], "description": "Manages user profiles, including personal data updates and frequent contacts."}, {"name": "Account &amp; Role Management Service", "endpoints": [{"name": "/accounts/register", "method": "POST", "inputs": ["email", "password", "role"], "outputs": ["registration result"], "description": "Registers a new user account."}, {"name": "/accounts/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result", "token"], "description": "Authenticates a user and returns an access token."}, {"name": "/accounts/{userId}/roles", "method": "PUT", "inputs": ["userId", "role"], "outputs": ["role update result"], "description": "Updates the role of a user."}], "user_stories": ["5"], "parameters": ["userId", "email", "password", "role"], "description": "Handles user account creation, authentication, and role-based access control for secure system usage."}, {"name": "Admin Management Service", "endpoints": [{"name": "/admin/bookings", "method": "GET", "inputs": ["filterParams"], "outputs": ["all bookings"], "description": "Retrieves all ticket bookings for administrative purposes."}, {"name": "/admin/reports", "method": "GET", "inputs": ["reportType", "dateRange"], "outputs": ["sales and usage report"], "description": "Generates sales and usage reports."}, {"name": "/admin/bookings/{bookingId}/manage", "method": "PUT", "inputs": ["bookingId", "action"], "outputs": ["management result"], "description": "Allows admin to manage a specific booking (e.g., update, cancel)."}], "user_stories": ["8", "13"], "parameters": ["filterParams", "reportType", "dateRange", "bookingId", "action"], "description": "Allows administrators to view and manage all ticket bookings and generate sales and usage reports."}, {"name": "Pricing &amp; Payment Service", "endpoints": [{"name": "/pricing", "method": "GET", "inputs": ["trainId", "date", "seatClass"], "outputs": ["ticket price"], "description": "Retrieves ticket price information for a specific train, date, and seat class."}, {"name": "/payment", "method": "POST", "inputs": ["bookingId", "userId", "paymentMethod", "amount", "paymentDetails"], "outputs": ["payment result", "transactionId"], "description": "Processes payment for a booking and returns the result."}, {"name": "/payment/{transactionId}/status", "method": "GET", "inputs": ["transactionId"], "outputs": ["payment status"], "description": "Retrieves the status of a payment transaction."}], "user_stories": ["12", "16"], "parameters": ["trainId", "date", "seatClass", "bookingId", "userId", "paymentMethod", "amount", "paymentDetails", "transactionId"], "description": "Provides ticket price information, payment options, and ensures secure, encrypted transactions."}], "patterns": [{"group_name": "Train Schedule Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Train Schedule Service"], "explaination": "Aggregate is used to ensure consistency within train schedule and status updates, as recommended in the context."}, {"group_name": "Train Schedule Events", "implementation_pattern": "domain event", "involved_microservices": ["Train Schedule Service"], "explaination": "Domain events are emitted for schedule/status changes, enabling other services (like Notification Service) to react, as per context."}, {"group_name": "Booking Transaction Management", "implementation_pattern": "saga", "involved_microservices": ["Booking Service", "Train Schedule Service", "Pricing &amp; Payment Service"], "explaination": "Saga is used to coordinate distributed transactions for booking, seat allocation, and payment, as described in the context."}, {"group_name": "Booking Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Booking Service"], "explaination": "Aggregate is used to maintain consistency for booking, seat selection, and cancellation, as per context."}, {"group_name": "Booking Events", "implementation_pattern": "domain event", "involved_microservices": ["Booking Service"], "explaination": "Domain events are published for booking lifecycle changes, enabling event-driven communication, as described in the context."}, {"group_name": "Notification Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Notification Service"], "explaination": "Notification Service listens for domain events (e.g., BookingConfirmed, TrainDelayed) to send notifications, as per context."}, {"group_name": "User Profile Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["User Profile Service"], "explaination": "Aggregate is used to ensure consistency for user profile updates and contact management, as recommended in the context."}, {"group_name": "User Profile Events", "implementation_pattern": "domain event", "involved_microservices": ["User Profile Service"], "explaination": "Domain events are emitted for profile/contact changes, enabling other services to react if needed, as per context."}, {"group_name": "Account &amp; Role Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Account &amp; Role Management Service"], "explaination": "Aggregate is used to ensure transactional consistency for authentication and authorization changes, as per context."}, {"group_name": "Admin Data Aggregation", "implementation_pattern": "api composition", "involved_microservices": ["Admin Management Service"], "explaination": "API Composition is used to gather data from multiple services for unified admin views and reporting, as described in the context."}, {"group_name": "Admin Read/Write Separation", "implementation_pattern": "cqrs", "involved_microservices": ["Admin Management Service"], "explaination": "CQRS is used to separate read and write models for efficient reporting and management, as per context."}, {"group_name": "Pricing &amp; Payment Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Pricing &amp; Payment Service"], "explaination": "Aggregate is used to ensure transactional integrity for payments and pricing rules, as recommended in the context."}, {"group_name": "Pricing &amp; Payment Transaction Management", "implementation_pattern": "saga", "involved_microservices": ["Pricing &amp; Payment Service", "Booking Service"], "explaination": "Saga is used to coordinate payment processes that may involve booking confirmation and seat allocation, as per context."}, {"group_name": "Pricing &amp; Payment Events", "implementation_pattern": "domain event", "involved_microservices": ["Pricing &amp; Payment Service"], "explaination": "Domain events are emitted for payment lifecycle changes, enabling other services to react, as described in the context."}], "datastore": [{"datastore_name": "TrainScheduleDB", "associated_microservices": ["Train Schedule Service"], "description": "Stores train schedules, availability, and status. Required for user stories 1 (search trains), 7 (notify delays/status), and 11 (validate availability)."}, {"datastore_name": "BookingDB", "associated_microservices": ["Booking Service"], "description": "Stores booking records, seat allocations, and booking status. Required for user stories 2 (book ticket), 6 (cancel/view bookings), 8 (admin view), 9 (confirmation), 13 (reporting), and 14 (seat selection)."}, {"datastore_name": "NotificationDB", "associated_microservices": ["Notification Service"], "description": "Stores notification templates and delivery logs. Required for user stories 3 (booking notifications), 7 (status notifications), and 9 (confirmation notifications)."}, {"datastore_name": "UserProfileDB", "associated_microservices": ["User Profile Service"], "description": "Stores user profiles and frequent contacts. Required for user stories 4 (manage contacts), 10 (update profile), and 15 (save frequent contacts)."}, {"datastore_name": "AccountRoleDB", "associated_microservices": ["Account &amp; Role Management Service"], "description": "Stores user accounts, authentication credentials, and roles. Required for user story 5 (account and role management)."}, {"datastore_name": "AdminReadModelDB", "associated_microservices": ["Admin Management Service"], "description": "Stores aggregated and denormalized data for admin queries and reports. Required for user stories 8 (admin view/manage bookings) and 13 (generate reports)."}, {"datastore_name": "PricingPaymentDB", "associated_microservices": ["Pricing &amp; Payment Service"], "description": "Stores pricing rules, payment transactions, and payment status. Required for user stories 12 (ticket prices/payment options) and 16 (secure transactions)."}]}</t>
+          <t>{'microservices': [{'name': 'Train Search Service', 'endpoints': [{'name': '/search', 'method': 'GET', 'inputs': ['origin', 'destination', 'date', 'passenger_count'], 'outputs': ['train_list', 'schedules', 'availability'], 'description': 'Search for available trains based on origin, destination, and date'}, {'name': '/availability', 'method': 'GET', 'inputs': ['train_id', 'date', 'seat_class'], 'outputs': ['available_seats', 'seat_map'], 'description': 'Check availability for a specific train'}, {'name': '/pricing', 'method': 'GET', 'inputs': ['train_id', 'seat_class', 'date'], 'outputs': ['price', 'payment_options'], 'description': 'Get pricing information for train tickets'}, {'name': '/availability/update', 'method': 'PUT', 'inputs': ['train_id', 'date', 'seat_ids', 'status'], 'outputs': ['update_result'], 'description': 'Update seat availability after booking or cancellation'}], 'user_stories': ['1', '11', '12'], 'parameters': ['train_schedules', 'seat_availability', 'pricing_data', 'train_routes'], 'description': 'Manages train schedule searches, availability validation, and pricing information using CQRS pattern for separating read and write operations'}, {'name': 'Booking Service', 'endpoints': [{'name': '/bookings', 'method': 'POST', 'inputs': ['user_id', 'train_id', 'date', 'seat_class', 'seat_preferences', 'contact_id', 'payment_details'], 'outputs': ['booking_id', 'booking_status', 'confirmation_details'], 'description': 'Create a new booking for a train ticket'}, {'name': '/bookings/{booking_id}', 'method': 'GET', 'inputs': ['booking_id'], 'outputs': ['booking_details', 'train_info', 'seat_info'], 'description': 'Retrieve details of a specific booking'}, {'name': '/bookings/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['bookings_list'], 'description': 'Get all bookings for a specific user'}, {'name': '/bookings/{booking_id}/cancel', 'method': 'DELETE', 'inputs': ['booking_id', 'user_id'], 'outputs': ['cancellation_status', 'refund_details'], 'description': 'Cancel an existing booking'}, {'name': '/bookings/{booking_id}/seats', 'method': 'PUT', 'inputs': ['booking_id', 'seat_preferences'], 'outputs': ['seat_selection_result'], 'description': 'Update seat selection for a booking'}], 'user_stories': ['2', '6', '14', '16'], 'parameters': ['booking_records', 'booking_status', 'seat_selections', 'payment_status', 'cancellation_history'], 'description': 'Handles ticket booking operations, cancellations, seat selection, and booking management with event sourcing for audit trails'}, {'name': 'Notification Service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'message', 'channel'], 'outputs': ['notification_id', 'delivery_status'], 'description': 'Send notification to user via email or message'}, {'name': '/notifications/booking-confirmation', 'method': 'POST', 'inputs': ['booking_id', 'user_id', 'booking_details'], 'outputs': ['confirmation_status'], 'description': 'Send booking confirmation notification'}, {'name': '/notifications/train-status', 'method': 'POST', 'inputs': ['train_id', 'status_update', 'affected_users'], 'outputs': ['notification_results'], 'description': 'Send train status updates to affected users'}, {'name': '/notifications/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['notification_history'], 'description': 'Retrieve notification history for a user'}], 'user_stories': ['3', '7', '9'], 'parameters': ['notification_logs', 'delivery_status', 'user_preferences', 'notification_templates'], 'description': 'Sends notifications, booking confirmations, and train status updates to users via email or messages'}, {'name': 'User Management Service', 'endpoints': [{'name': '/users/register', 'method': 'POST', 'inputs': ['email', 'password', 'name', 'phone'], 'outputs': ['user_id', 'registration_status'], 'description': 'Register a new user account'}, {'name': '/users/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_details'], 'description': 'Authenticate user and generate access token'}, {'name': '/users/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile'], 'description': 'Get user profile information'}, {'name': '/users/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'profile_data'], 'outputs': ['update_status'], 'description': 'Update user profile and personal data'}, {'name': '/users/{user_id}/roles', 'method': 'PUT', 'inputs': ['user_id', 'roles'], 'outputs': ['role_update_status'], 'description': 'Update user roles for access control'}], 'user_stories': ['5', '10'], 'parameters': ['user_accounts', 'authentication_tokens', 'user_roles', 'profile_data'], 'description': 'Manages user accounts, roles, authentication, profile updates, and personal data'}, {'name': 'Contact Management Service', 'endpoints': [{'name': '/contacts', 'method': 'POST', 'inputs': ['user_id', 'contact_name', 'contact_phone', 'contact_email', 'id_number'], 'outputs': ['contact_id', 'creation_status'], 'description': 'Add a new contact for a user'}, {'name': '/contacts/{contact_id}', 'method': 'GET', 'inputs': ['contact_id'], 'outputs': ['contact_details'], 'description': 'Get details of a specific contact'}, {'name': '/contacts/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['contacts_list'], 'description': 'Get all saved contacts for a user'}, {'name': '/contacts/{contact_id}', 'method': 'PUT', 'inputs': ['contact_id', 'contact_data'], 'outputs': ['update_status'], 'description': 'Update contact information'}, {'name': '/contacts/{contact_id}', 'method': 'DELETE', 'inputs': ['contact_id'], 'outputs': ['deletion_status'], 'description': 'Delete a saved contact'}], 'user_stories': ['4', '15'], 'parameters': ['contact_records', 'frequent_contacts', 'contact_metadata'], 'description': 'Manages user contact information and saved frequent contacts for bookings'}, {'name': 'Admin Service', 'endpoints': [{'name': '/admin/bookings', 'method': 'GET', 'inputs': ['filters', 'pagination'], 'outputs': ['all_bookings', 'total_count'], 'description': 'View all bookings in the system with filtering options'}, {'name': '/admin/bookings/{booking_id}', 'method': 'PUT', 'inputs': ['booking_id', 'admin_action', 'reason'], 'outputs': ['action_result'], 'description': 'Manage specific booking (cancel, modify, etc.)'}, {'name': '/admin/reports/sales', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'report_type'], 'outputs': ['sales_report', 'statistics'], 'description': 'Generate sales reports for specified period'}, {'name': '/admin/reports/usage', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'metrics'], 'outputs': ['usage_report', 'analytics'], 'description': 'Generate usage reports and analytics'}, {'name': '/admin/users', 'method': 'GET', 'inputs': ['filters'], 'outputs': ['users_list'], 'description': 'View and manage all user accounts'}], 'user_stories': ['8', '13'], 'parameters': ['admin_permissions', 'report_configurations', 'audit_logs'], 'description': 'Provides administrative functions for viewing/managing all bookings and generating sales and usage reports using CQRS for read models'}], 'patterns': [{'group_name': 'Service Database Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Train Search Service', 'Booking Service', 'Notification Service', 'User Management Service', 'Contact Management Service', 'Admin Service'], 'explaination': 'I chose this pattern because the context explicitly recommends that each microservice should have its own database to ensure loose coupling and independent scalability. This allows services to be developed, deployed, and scaled independently while making ownership of data clearer, which is essential for a distributed microservices architecture.'}, {'group_name': 'Booking Transaction Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Train Search Service', 'Booking Service', 'Notification Service'], 'explaination': 'I chose the saga pattern because the context identifies it as essential for managing distributed transactions across services. The booking flow (User Stories 2, 11, 14, 16) requires coordination between Train Search Service (validate availability), Booking Service (create booking), and Notification Service (send confirmation). This ensures data consistency without distributed transactions while maintaining secure transactions (User Story 16).'}, {'group_name': 'Cancellation Transaction Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Booking Service', 'Train Search Service', 'Notification Service'], 'explaination': 'I chose the saga pattern for the cancellation flow (User Story 6) because it requires coordinating multiple services: Booking Service (cancel ticket), Train Search Service (update availability), and Notification Service (notify user). The context explicitly recommends using saga for all cross-service transactions to maintain data consistency.'}, {'group_name': 'Booking Details Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Booking Service', 'User Management Service', 'Contact Management Service'], 'explaination': 'I chose API composition because the context recommends it for queries spanning multiple services. When viewing booking details with user information (User Stories 2, 4, 6), data needs to be aggregated from Booking Service, User Management Service, and Contact Management Service to provide complete booking information to users.'}, {'group_name': 'Train Search Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Train Search Service'], 'explaination': 'I chose CQRS for the Train Search Service because the context specifically recommends separating write models (availability updates) from read models (search queries) for better performance. This is critical for User Stories 1, 11, and 12, where high-volume search queries need to be optimized independently from availability updates.'}, {'group_name': 'Admin Reporting and Management', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Admin Service'], 'explaination': 'I chose CQRS for the Admin Service because the context recommends maintaining read models for reporting and viewing all bookings without impacting operational databases. This supports User Stories 8 and 13 by allowing administrators to generate reports and view bookings efficiently without affecting booking operations.'}, {'group_name': 'Booking Audit Trail', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Booking Service'], 'explaination': 'I chose event sourcing for the Booking Service because the context identifies it as particularly valuable for storing all booking state changes as events. This supports audit trails, cancellation history, and administrative reporting (User Stories 2, 6, 8, 14, 16), ensuring secure and traceable transactions with complete history.'}, {'group_name': 'Service Event Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['Booking Service', 'Notification Service', 'Train Search Service', 'User Management Service'], 'explaination': 'I chose domain events as the context identifies them as critical for asynchronous communication between services. Events like BookingCreated trigger notifications (User Stories 3, 9), TrainStatusUpdated triggers status notifications (User Story 7), BookingCancelled updates availability (User Story 6), and UserProfileUpdated synchronizes data (User Story 10). The context recommends domain events as the primary communication mechanism.'}, {'group_name': 'Booking Business Logic', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Booking Service'], 'explaination': 'I chose the aggregate pattern to define clear aggregate boundaries for the Booking Aggregate, which groups booking, seat selection, and cancellation logic together (User Stories 2, 6, 14). This ensures transactional consistency within the booking domain and maintains invariants across related operations.'}, {'group_name': 'User Account Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Management Service'], 'explaination': 'I chose the aggregate pattern to define the User Aggregate boundary, which contains user profile and authentication data (User Stories 5, 10). This ensures that all user-related operations maintain consistency and proper encapsulation of user business rules.'}, {'group_name': 'Contact Information Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Contact Management Service'], 'explaination': 'I chose the aggregate pattern to manage the Contact Aggregate, which handles contact information and frequent contacts (User Stories 4, 15). This provides a clear boundary for contact management operations and ensures consistency when users save and manage their contact information.'}], 'datastore': [{'datastore_name': 'Train Search Database', 'associated_microservices': ['Train Search Service'], 'description': 'Stores train schedules, routes, seat availability, and pricing information. Uses CQRS pattern with separate read and write models - write model for availability updates and read model optimized for search queries. Influenced by User Stories 1, 11, and 12 for searching trains, validating availability, and checking prices.'}, {'datastore_name': 'Booking Event Store', 'associated_microservices': ['Booking Service'], 'description': 'Event sourcing database that stores all booking events (created, modified, cancelled, seat selected) as an immutable event log. Enables complete audit trail and reconstruction of booking state. Influenced by User Stories 2, 6, 8, 14, and 16 for booking tickets, cancellations, seat selection, admin management, and secure transactions.'}, {'datastore_name': 'Notification Database', 'associated_microservices': ['Notification Service'], 'description': 'Stores notification logs, delivery status, user notification preferences, and templates. Tracks all sent notifications including booking confirmations, train status updates, and general messages. Influenced by User Stories 3, 7, and 9 for sending notifications, status updates, and booking confirmations.'}, {'datastore_name': 'User Management Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user accounts, authentication credentials (encrypted), roles, permissions, and profile data. Contains user aggregate boundary for maintaining user-related consistency. Influenced by User Stories 5 and 10 for managing user accounts, roles, and profile updates.'}, {'datastore_name': 'Contact Database', 'associated_microservices': ['Contact Management Service'], 'description': 'Stores saved contact information including names, phone numbers, emails, and ID numbers for frequent contacts. Contains contact aggregate for managing contact-related operations. Influenced by User Stories 4 and 15 for managing contact information and saving frequent contacts.'}, {'datastore_name': 'Admin Read Model Database', 'associated_microservices': ['Admin Service'], 'description': 'CQRS read model database optimized for administrative queries and reporting. Contains denormalized views of bookings, sales data, and usage statistics aggregated from other services. Does not handle write operations directly. Influenced by User Stories 8 and 13 for viewing/managing all bookings and generating reports.'}]}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Catalog Service", "endpoints": [{"name": "/teas", "method": "GET", "inputs": [], "outputs": ["list of teas"], "description": "Retrieves a list of available teas for browsing."}, {"name": "/teas/{teaId}", "method": "GET", "inputs": ["teaId"], "outputs": ["tea details"], "description": "Retrieves details for a specific tea."}, {"name": "/teas/{teaId}/availability", "method": "GET", "inputs": ["teaId"], "outputs": ["availability status"], "description": "Checks the availability of a specific tea."}, {"name": "/teas", "method": "POST", "inputs": ["tea data"], "outputs": ["created tea"], "description": "Adds a new tea product to the catalog (admin operation)."}, {"name": "/teas/{teaId}", "method": "PUT", "inputs": ["teaId", "tea data"], "outputs": ["updated tea"], "description": "Updates an existing tea product (admin operation)."}, {"name": "/teas/{teaId}", "method": "DELETE", "inputs": ["teaId"], "outputs": ["deletion result"], "description": "Deletes a tea product from the catalog (admin operation)."}], "user_stories": ["1", "3", "5", "9", "11", "12"], "parameters": ["teaId", "tea data", "availability status"], "description": "Manages the catalog of tea products, including browsing, viewing details, checking availability, and admin operations for adding, updating, or deleting teas."}, {"name": "Recommendation Service", "endpoints": [{"name": "/recommendations", "method": "GET", "inputs": ["userId"], "outputs": ["list of recommended teas"], "description": "Provides personalized tea recommendations for a user."}, {"name": "/recommendations/batch", "method": "POST", "inputs": ["list of userIds"], "outputs": ["list of recommendations per user"], "description": "Processes multiple recommendation requests for users."}], "user_stories": ["2", "11"], "parameters": ["userId", "list of userIds"], "description": "Provides personalized tea recommendations to customers and processes single or multiple recommendation requests."}, {"name": "Cart Service", "endpoints": [{"name": "/cart/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["cart contents"], "description": "Retrieves the current shopping cart for a user."}, {"name": "/cart/{userId}/items", "method": "POST", "inputs": ["userId", "teaId", "quantity"], "outputs": ["updated cart"], "description": "Adds a tea to the user's shopping cart."}, {"name": "/cart/{userId}/items/{teaId}", "method": "DELETE", "inputs": ["userId", "teaId"], "outputs": ["updated cart"], "description": "Removes a tea from the user's shopping cart."}, {"name": "/cart/{userId}/checkout", "method": "POST", "inputs": ["userId"], "outputs": ["checkout result"], "description": "Initiates the checkout process for the user's cart."}], "user_stories": ["4"], "parameters": ["userId", "teaId", "quantity"], "description": "Handles shopping cart operations, allowing customers to add teas and prepare orders."}, {"name": "Order Service", "endpoints": [{"name": "/orders", "method": "POST", "inputs": ["userId", "order data"], "outputs": ["order confirmation"], "description": "Places a new order for teas in the user's cart."}, {"name": "/orders/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["order details"], "description": "Retrieves details of a specific order."}, {"name": "/orders/user/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["list of past orders"], "description": "Retrieves past orders for a user."}, {"name": "/orders/{orderId}/status", "method": "PUT", "inputs": ["orderId", "status"], "outputs": ["updated order"], "description": "Updates the status of an order (e.g., shipped, delivered)."}], "user_stories": ["7", "8", "10"], "parameters": ["orderId", "userId", "order data", "status", "timestamp"], "description": "Processes tea orders, confirms purchases, tracks and updates order timestamps, and allows customers to review past orders."}, {"name": "Store Readiness Service", "endpoints": [{"name": "/store/status", "method": "GET", "inputs": [], "outputs": ["store readiness status"], "description": "Retrieves the current readiness status of the store for processing orders."}, {"name": "/store/status", "method": "PUT", "inputs": ["status"], "outputs": ["updated status"], "description": "Updates the store readiness status (admin/system operation)."}], "user_stories": ["6"], "parameters": ["status"], "description": "Tracks and reports the readiness status of the store for processing orders."}, {"name": "Review Service", "endpoints": [{"name": "/reviews", "method": "POST", "inputs": ["userId", "teaId", "rating", "review text"], "outputs": ["created review"], "description": "Allows a customer to submit a review and rating for a tea."}, {"name": "/reviews/tea/{teaId}", "method": "GET", "inputs": ["teaId"], "outputs": ["list of reviews"], "description": "Retrieves all reviews for a specific tea."}, {"name": "/reviews/user/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["list of reviews by user"], "description": "Retrieves all reviews submitted by a user."}], "user_stories": ["13"], "parameters": ["userId", "teaId", "rating", "review text"], "description": "Allows customers to rate and review teas they have purchased."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications/send", "method": "POST", "inputs": ["userId", "notification content"], "outputs": ["notification result"], "description": "Sends a notification to a user."}, {"name": "/notifications/broadcast", "method": "POST", "inputs": ["notification content"], "outputs": ["broadcast result"], "description": "Sends a notification to all users (e.g., special offers, new arrivals)."}], "user_stories": ["14"], "parameters": ["userId", "notification content"], "description": "Sends notifications to customers about special offers and new arrivals."}], "patterns": [{"group_name": "Catalog Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Catalog Service"], "explaination": "Each microservice should have its own database for loose coupling and independent scaling. The context and user stories (1, 3, 5, 9, 11, 12) require Catalog Service to manage its own data."}, {"group_name": "Catalog Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Catalog Service"], "explaination": "Catalog Service encapsulates business rules for tea products. User stories about adding, updating, deleting, and checking teas (1, 3, 5, 9, 12) require aggregates."}, {"group_name": "Catalog Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Catalog Service"], "explaination": "Catalog Service publishes events when products are changed, supporting features like notifications and recommendations (user stories 11, 14)."}, {"group_name": "Catalog Query Optimization", "implementation_pattern": "cqrs", "involved_microservices": ["Catalog Service"], "explaination": "Browsing and searching teas (user stories 1, 3, 5) require efficient queries, so CQRS is used."}, {"group_name": "Recommendation Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Recommendation Service"], "explaination": "Recommendation Service manages its own recommendation data for scalability and independence (user stories 2, 11)."}, {"group_name": "Recommendation Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Recommendation Service"], "explaination": "Recommendation Service encapsulates recommendation logic as aggregates (user stories 2, 11)."}, {"group_name": "Recommendation Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Recommendation Service"], "explaination": "Recommendation Service publishes events when new recommendations are generated (user stories 2, 11)."}, {"group_name": "Recommendation API Composition", "implementation_pattern": "api composition", "involved_microservices": ["Recommendation Service", "Catalog Service"], "explaination": "To present recommendations with product details, Recommendation Service composes APIs from Catalog Service (user stories 2, 11)."}, {"group_name": "Cart Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Cart Service"], "explaination": "Cart Service manages shopping cart data independently (user story 4)."}, {"group_name": "Cart Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Cart Service"], "explaination": "Cart Service encapsulates cart operations as aggregates (user story 4)."}, {"group_name": "Cart Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Cart Service"], "explaination": "Cart Service publishes events when carts are updated, supporting order placement and notifications (user story 4)."}, {"group_name": "Order Placement Saga", "implementation_pattern": "saga", "involved_microservices": ["Cart Service", "Order Service", "Catalog Service", "Store Readiness Service"], "explaination": "Placing an order spans multiple services (Cart, Order, Catalog for availability, Store Readiness). Saga coordinates distributed transactions for user stories 4, 5, 6, 7."}, {"group_name": "Order Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Order Service"], "explaination": "Order Service manages order data independently for scalability and traceability (user stories 7, 8, 10)."}, {"group_name": "Order Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Order Service"], "explaination": "Order Service encapsulates order state transitions and business rules as aggregates (user stories 7, 8, 10)."}, {"group_name": "Order Event Sourcing", "implementation_pattern": "event sourcing", "involved_microservices": ["Order Service"], "explaination": "Order Service uses event sourcing to track order status changes and timestamps for auditability (user stories 7, 8, 10)."}, {"group_name": "Order Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Order Service"], "explaination": "Order Service publishes events when orders are placed or updated, supporting notifications and reviews (user stories 7, 8, 10, 13, 14)."}, {"group_name": "Order Query Optimization", "implementation_pattern": "cqrs", "involved_microservices": ["Order Service"], "explaination": "Order Service supports efficient queries for reviewing past orders (user story 10)."}, {"group_name": "Store Readiness Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Store Readiness Service"], "explaination": "Store Readiness Service manages its own status data (user story 6)."}, {"group_name": "Store Readiness Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Store Readiness Service"], "explaination": "Store Readiness Service encapsulates store status as an aggregate (user story 6)."}, {"group_name": "Store Readiness Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Store Readiness Service"], "explaination": "Store Readiness Service publishes events when store status changes (user story 6)."}, {"group_name": "Review Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Review Service"], "explaination": "Review Service manages review data independently (user story 13)."}, {"group_name": "Review Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Review Service"], "explaination": "Review Service encapsulates review logic as aggregates (user story 13)."}, {"group_name": "Review Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Review Service"], "explaination": "Review Service publishes events when reviews are submitted, supporting notifications and recommendations (user story 13)."}, {"group_name": "Review API Composition", "implementation_pattern": "api composition", "involved_microservices": ["Review Service", "Catalog Service"], "explaination": "Review Service composes APIs from Catalog Service to fetch tea details for reviews (user story 13)."}, {"group_name": "Notification Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Notification Service"], "explaination": "Notification Service manages notification data independently (user story 14)."}, {"group_name": "Notification Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Notification Service"], "explaination": "Notification Service subscribes to domain events from other services to trigger notifications (user story 14)."}], "datastore": [{"datastore_name": "Catalog Database", "associated_microservices": ["Catalog Service"], "description": "Stores tea product data, including details, availability, and admin modifications. Required for browsing, updating, and deleting teas (user stories 1, 3, 5, 9, 11, 12)."}, {"datastore_name": "Recommendation Database", "associated_microservices": ["Recommendation Service"], "description": "Stores user recommendation data and history. Needed for personalized and batch recommendations (user stories 2, 11)."}, {"datastore_name": "Cart Database", "associated_microservices": ["Cart Service"], "description": "Stores shopping cart contents for each user, supporting add/remove/checkout operations (user story 4)."}, {"datastore_name": "Order Database", "associated_microservices": ["Order Service"], "description": "Stores order data, status, and event history for traceability and order review (user stories 7, 8, 10)."}, {"datastore_name": "Store Readiness Database", "associated_microservices": ["Store Readiness Service"], "description": "Stores the current readiness status of the store, required for order processing checks (user story 6)."}, {"datastore_name": "Review Database", "associated_microservices": ["Review Service"], "description": "Stores customer reviews and ratings for teas, supporting review submission and retrieval (user story 13)."}, {"datastore_name": "Notification Database", "associated_microservices": ["Notification Service"], "description": "Stores notification history and templates for sending to users (user story 14)."}]}</t>
+          <t>{'microservices': [{'name': 'catalog-service', 'endpoints': [{'name': '/teas', 'method': 'GET', 'inputs': ['filter', 'category'], 'outputs': ['tea_list'], 'description': 'Browse available teas with optional filters'}, {'name': '/teas/{tea_id}', 'method': 'GET', 'inputs': ['tea_id'], 'outputs': ['tea_details'], 'description': 'View details about a specific tea product'}, {'name': '/teas/{tea_id}/availability', 'method': 'GET', 'inputs': ['tea_id'], 'outputs': ['availability_status'], 'description': 'Check availability of a specific tea'}, {'name': '/teas', 'method': 'POST', 'inputs': ['tea_name', 'description', 'price', 'category', 'stock'], 'outputs': ['tea_id', 'creation_status'], 'description': 'Add a new tea product to the catalog'}, {'name': '/teas/{tea_id}', 'method': 'PUT', 'inputs': ['tea_id', 'tea_name', 'description', 'price', 'category', 'stock'], 'outputs': ['update_status'], 'description': 'Update an existing tea product'}, {'name': '/teas/{tea_id}', 'method': 'DELETE', 'inputs': ['tea_id'], 'outputs': ['deletion_status'], 'description': 'Delete a discontinued tea product'}], 'user_stories': ['1', '3', '5', '9', '12'], 'parameters': ['tea_id', 'tea_name', 'description', 'price', 'category', 'stock', 'availability_status'], 'description': 'Manages the tea product catalog including browsing, viewing details, checking availability, and CRUD operations for tea products'}, {'name': 'recommendation-service', 'endpoints': [{'name': '/recommendations/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['recommended_teas'], 'description': 'Get personalized tea recommendations for a customer'}, {'name': '/recommendations/batch', 'method': 'POST', 'inputs': ['customer_ids'], 'outputs': ['batch_recommendations'], 'description': 'Process multiple recommendation requests for multiple users'}], 'user_stories': ['2', '11'], 'parameters': ['customer_id', 'purchase_history', 'preferences', 'recommended_teas'], 'description': 'Provides personalized tea recommendations to customers based on their preferences and purchase history'}, {'name': 'cart-service', 'endpoints': [{'name': '/cart/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['cart_items'], 'description': "Retrieve customer's shopping cart"}, {'name': '/cart/{customer_id}/items', 'method': 'POST', 'inputs': ['customer_id', 'tea_id', 'quantity'], 'outputs': ['add_status'], 'description': 'Add tea items to shopping cart'}, {'name': '/cart/{customer_id}/items/{tea_id}', 'method': 'PUT', 'inputs': ['customer_id', 'tea_id', 'quantity'], 'outputs': ['update_status'], 'description': 'Update quantity of tea items in cart'}, {'name': '/cart/{customer_id}/items/{tea_id}', 'method': 'DELETE', 'inputs': ['customer_id', 'tea_id'], 'outputs': ['delete_status'], 'description': 'Remove tea items from cart'}, {'name': '/cart/{customer_id}', 'method': 'DELETE', 'inputs': ['customer_id'], 'outputs': ['clear_status'], 'description': 'Clear entire shopping cart'}], 'user_stories': ['4'], 'parameters': ['customer_id', 'cart_id', 'tea_id', 'quantity', 'cart_items'], 'description': 'Handles shopping cart operations allowing customers to add, update, and manage items before checkout'}, {'name': 'order-service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['customer_id', 'cart_items', 'payment_info', 'shipping_address'], 'outputs': ['order_id', 'confirmation_status', 'order_timestamp'], 'description': 'Create a new order from cart items'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_details', 'order_status', 'timestamps'], 'description': 'Get details of a specific order'}, {'name': '/orders/customer/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['order_history'], 'description': 'Retrieve past orders for a customer'}, {'name': '/orders/{order_id}/status', 'method': 'PUT', 'inputs': ['order_id', 'status'], 'outputs': ['status_update_result', 'timestamp'], 'description': 'Update order status and track timestamp'}], 'user_stories': ['7', '8', '10'], 'parameters': ['order_id', 'customer_id', 'order_items', 'order_status', 'order_timestamp', 'created_at', 'updated_at', 'payment_info', 'shipping_address'], 'description': 'Processes tea orders, manages order confirmation, tracks order timestamps, and maintains order history for customers'}, {'name': 'review-service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['customer_id', 'tea_id', 'rating', 'review_text'], 'outputs': ['review_id', 'submission_status'], 'description': 'Submit a rating and review for a tea'}, {'name': '/reviews/tea/{tea_id}', 'method': 'GET', 'inputs': ['tea_id'], 'outputs': ['reviews_list'], 'description': 'Get all reviews for a specific tea'}, {'name': '/reviews/customer/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['customer_reviews'], 'description': 'Get all reviews submitted by a customer'}], 'user_stories': ['13'], 'parameters': ['review_id', 'customer_id', 'tea_id', 'rating', 'review_text', 'review_timestamp'], 'description': 'Enables customers to rate and review teas they have purchased'}, {'name': 'notification-service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['customer_id', 'notification_type', 'message', 'channel'], 'outputs': ['notification_id', 'send_status'], 'description': 'Send notification to a customer'}, {'name': '/notifications/customer/{customer_id}', 'method': 'GET', 'inputs': ['customer_id'], 'outputs': ['notifications_list'], 'description': 'Get notification history for a customer'}, {'name': '/notifications/broadcast', 'method': 'POST', 'inputs': ['notification_type', 'message', 'customer_segment'], 'outputs': ['broadcast_status'], 'description': 'Broadcast notifications about special offers and new arrivals'}], 'user_stories': ['14'], 'parameters': ['notification_id', 'customer_id', 'notification_type', 'message', 'channel', 'status', 'sent_at'], 'description': 'Sends notifications to customers about special offers, new arrivals, and order updates'}, {'name': 'health-service', 'endpoints': [{'name': '/health', 'method': 'GET', 'inputs': [], 'outputs': ['overall_status', 'service_statuses'], 'description': 'Get overall health status of all services'}, {'name': '/health/{service_name}', 'method': 'GET', 'inputs': ['service_name'], 'outputs': ['service_status', 'last_check'], 'description': 'Get health status of a specific service'}, {'name': '/readiness', 'method': 'GET', 'inputs': [], 'outputs': ['readiness_status'], 'description': 'Check if the store is ready to process orders'}], 'user_stories': ['6'], 'parameters': ['service_name', 'service_status', 'overall_status', 'readiness_status', 'last_check_timestamp'], 'description': 'Monitors and reports the readiness status of the store and its services to ensure the system is ready to process orders'}], 'patterns': [{'group_name': 'Order Processing Workflow', 'implementation_pattern': 'saga', 'involved_microservices': ['order-service', 'cart-service', 'catalog-service', 'notification-service'], 'explaination': 'I chose the Saga pattern because the order processing workflow (user story 7) requires coordinating transactions across multiple services: reserving inventory in catalog-service, clearing the cart in cart-service, creating the order in order-service, and triggering notifications in notification-service. This ensures data consistency across services without distributed transactions.'}, {'group_name': 'Catalog Browse and Availability', 'implementation_pattern': 'api composition', 'involved_microservices': ['catalog-service'], 'explaination': 'I chose API Composition for catalog-service to support user stories 1, 3, and 5, where browsing teas needs to compose tea catalog data with real-time availability information in a single response to provide customers with complete information.'}, {'group_name': 'Personalized Recommendations', 'implementation_pattern': 'api composition', 'involved_microservices': ['recommendation-service', 'order-service', 'catalog-service'], 'explaination': 'I chose API Composition for recommendation-service to aggregate customer purchase history from order-service with current catalog data from catalog-service to generate personalized recommendations (user stories 2 and 11).'}, {'group_name': 'Order History with Details', 'implementation_pattern': 'api composition', 'involved_microservices': ['order-service', 'catalog-service'], 'explaination': 'I chose API Composition to support user story 10, where customers view past orders. This requires combining order data from order-service with current tea product details from catalog-service to display complete order history.'}, {'group_name': 'Cross-Service Event Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['order-service', 'cart-service', 'catalog-service', 'review-service', 'notification-service', 'recommendation-service'], 'explaination': 'I chose Domain Event pattern to enable asynchronous communication between services: order placed events trigger notifications (user story 14), review submitted events update catalog ratings (user story 13), product updated events notify dependent services (user story 9), and cart updated events track customer behavior for recommendations (user story 2).'}, {'group_name': 'Recommendation Read Model', 'implementation_pattern': 'cqrs', 'involved_microservices': ['recommendation-service'], 'explaination': 'I chose CQRS for recommendation-service to maintain a read-optimized view of customer preferences and purchase patterns, enabling fast recommendation queries for user stories 2 and 11 while separating the complex read model from write operations.'}, {'group_name': 'Catalog Read-Write Separation', 'implementation_pattern': 'cqrs', 'involved_microservices': ['catalog-service'], 'explaination': 'I chose CQRS for catalog-service to separate the read model for browsing teas (user story 1) from the write model for admin updates (user stories 9 and 12), optimizing both customer browsing performance and admin operations.'}, {'group_name': 'Order Event History', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['order-service'], 'explaination': 'I chose Event Sourcing for order-service to store all order state changes as events, supporting user story 8 (tracking timestamps), user story 10 (rebuilding complete order history), and maintaining a full audit trail of the order lifecycle.'}, {'group_name': 'Cart Consistency Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['cart-service'], 'explaination': 'I chose the Aggregate pattern for cart-service to manage cart items as a single consistency boundary, ensuring that all cart operations (user story 4) maintain data integrity within the cart aggregate root.'}, {'group_name': 'Order Consistency Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['order-service'], 'explaination': 'I chose the Aggregate pattern for order-service to ensure that orders and their items remain consistent as a single unit, supporting user stories 7, 8, and 10 by maintaining order integrity throughout its lifecycle.'}, {'group_name': 'Product Consistency Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['catalog-service'], 'explaination': 'I chose the Aggregate pattern for catalog-service to maintain consistency between tea details, availability, and pricing as a single aggregate, supporting user stories 1, 3, 5, 9, and 12.'}, {'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['catalog-service', 'recommendation-service', 'cart-service', 'order-service', 'review-service', 'notification-service', 'health-service'], 'explaination': 'I chose Database per Service pattern for all microservices to ensure loose coupling, independent deployment, and allow each service to choose appropriate database technologies for its specific needs, as recommended in the context for maintaining a proper microservices architecture.'}], 'datastore': [{'datastore_name': 'catalog-db', 'associated_microservices': ['catalog-service'], 'description': 'Stores tea product information including name, description, price, category, stock levels, and availability. Supports both read-optimized views for browsing (user stories 1, 3, 5) and write operations for admin management (user stories 9, 12). Implements CQRS with separate read and write models.'}, {'datastore_name': 'recommendation-db', 'associated_microservices': ['recommendation-service'], 'description': 'Maintains a read-optimized denormalized view of customer preferences, purchase patterns, and aggregated data from order history for fast recommendation queries (user stories 2, 11). Uses CQRS pattern to optimize read performance.'}, {'datastore_name': 'cart-db', 'associated_microservices': ['cart-service'], 'description': 'Stores shopping cart data including cart items, quantities, and customer associations (user story 4). Maintains cart aggregates as consistency boundaries and participates in the order processing saga.'}, {'datastore_name': 'order-event-store', 'associated_microservices': ['order-service'], 'description': 'Event store that persists all order state changes as immutable events, supporting order creation (user story 7), timestamp tracking (user story 8), and order history reconstruction (user story 10). Implements event sourcing pattern for complete audit trail and order lifecycle management.'}, {'datastore_name': 'review-db', 'associated_microservices': ['review-service'], 'description': 'Stores customer ratings and reviews for purchased teas (user story 13). Contains review text, ratings, timestamps, and associations between customers and tea products. Publishes domain events when reviews are submitted to update catalog ratings.'}, {'datastore_name': 'notification-db', 'associated_microservices': ['notification-service'], 'description': 'Stores notification records, delivery status, and notification history for customers (user story 14). Tracks special offers, new arrivals, and order update notifications. Consumes domain events from other services to trigger notifications.'}, {'datastore_name': 'health-db', 'associated_microservices': ['health-service'], 'description': 'Stores health check results, service status information, and readiness metrics (user story 6). Aggregates status from all microservices to determine overall system readiness for order processing.'}]}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": ["search", "filter", "sort", "page", "pageSize"], "outputs": ["product list"], "description": "Returns a list of available sock products, with optional search, filter, and pagination."}, {"name": "/products/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["product details"], "description": "Returns details for a specific sock product."}, {"name": "/products", "method": "POST", "inputs": ["product data"], "outputs": ["created product"], "description": "Adds a new sock product to the catalog (admin only)."}, {"name": "/products/{productId}", "method": "PUT", "inputs": ["productId", "product data"], "outputs": ["updated product"], "description": "Updates an existing sock product in the catalog (admin only)."}], "user_stories": ["1", "6", "14"], "parameters": ["productId", "product data", "search", "filter", "sort", "page", "pageSize"], "description": "Manages the sock product catalog, including browsing, searching, and admin updates to listings."}, {"name": "Cart Service", "endpoints": [{"name": "/cart/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["cart contents"], "description": "Returns the current contents of the user's shopping cart."}, {"name": "/cart/{userId}/items", "method": "POST", "inputs": ["userId", "productId", "quantity"], "outputs": ["updated cart"], "description": "Adds an item to the user's shopping cart."}, {"name": "/cart/{userId}/items/{productId}", "method": "PUT", "inputs": ["userId", "productId", "quantity"], "outputs": ["updated cart"], "description": "Updates the quantity of an item in the user's shopping cart."}, {"name": "/cart/{userId}/items/{productId}", "method": "DELETE", "inputs": ["userId", "productId"], "outputs": ["updated cart"], "description": "Removes an item from the user's shopping cart."}], "user_stories": ["2", "3"], "parameters": ["userId", "productId", "quantity"], "description": "Handles shopping cart operations such as adding items, updating quantities, and viewing cart contents."}, {"name": "Checkout Service", "endpoints": [{"name": "/checkout", "method": "POST", "inputs": ["userId", "paymentInfo", "shippingAddress"], "outputs": ["checkout result", "orderId"], "description": "Processes checkout, including payment and order creation."}], "user_stories": ["4"], "parameters": ["userId", "paymentInfo", "shippingAddress"], "description": "Processes checkout operations, including payment handling and order creation."}, {"name": "Order Service", "endpoints": [{"name": "/orders/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["order history"], "description": "Returns the order history for a user."}, {"name": "/orders/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["order details"], "description": "Returns details and status for a specific order."}, {"name": "/orders/{orderId}/reorder", "method": "POST", "inputs": ["orderId", "userId"], "outputs": ["new orderId"], "description": "Allows a user to reorder a previous purchase."}, {"name": "/orders/{orderId}/status", "method": "PUT", "inputs": ["orderId", "status"], "outputs": ["updated order"], "description": "Updates the status of an order (system/internal use)."}], "user_stories": ["5", "7", "10"], "parameters": ["userId", "orderId", "status"], "description": "Manages order processing, order history, order confirmation, and status updates."}, {"name": "Shipping Service", "endpoints": [{"name": "/shipments/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["shipment status"], "description": "Returns the shipment status for a given order."}, {"name": "/shipments/{orderId}/status", "method": "PUT", "inputs": ["orderId", "shipmentStatus"], "outputs": ["updated shipment"], "description": "Updates the shipment status for a given order."}], "user_stories": ["15"], "parameters": ["orderId", "shipmentStatus"], "description": "Tracks shipment status and updates customers on delivery progress."}, {"name": "Inventory Service", "endpoints": [{"name": "/inventory/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["stock level"], "description": "Returns the current stock level for a product."}, {"name": "/inventory/{productId}/reserve", "method": "POST", "inputs": ["productId", "quantity"], "outputs": ["reservation result"], "description": "Reserves stock for an order."}, {"name": "/inventory/{productId}/release", "method": "POST", "inputs": ["productId", "quantity"], "outputs": ["release result"], "description": "Releases reserved stock (e.g., on order cancellation)."}, {"name": "/inventory/{productId}", "method": "PUT", "inputs": ["productId", "stock level"], "outputs": ["updated inventory"], "description": "Updates the stock level for a product (admin/system use)."}], "user_stories": ["14"], "parameters": ["productId", "quantity", "stock level"], "description": "Ensures product availability and prevents ordering of out-of-stock items."}, {"name": "Rating/Review Service", "endpoints": [{"name": "/ratings/{orderId}", "method": "POST", "inputs": ["orderId", "userId", "rating", "review"], "outputs": ["rating result"], "description": "Allows a customer to rate and review their purchase experience."}, {"name": "/ratings/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["ratings list"], "description": "Returns ratings and reviews for a product."}], "user_stories": ["12"], "parameters": ["orderId", "userId", "productId", "rating", "review"], "description": "Allows customers to rate their purchase experience."}, {"name": "Logging Service", "endpoints": [{"name": "/logs", "method": "POST", "inputs": ["event", "level", "timestamp", "service", "details"], "outputs": ["log result"], "description": "Logs an event for monitoring and debugging."}, {"name": "/logs", "method": "GET", "inputs": ["filter", "level", "service", "dateRange"], "outputs": ["log entries"], "description": "Retrieves logs for admin review, filtering by level, service, or date."}], "user_stories": ["8", "13"], "parameters": ["event", "level", "timestamp", "service", "details", "filter", "dateRange"], "description": "Logs important events for monitoring, debugging, and admin review of failed transactions or errors."}, {"name": "Monitoring Service", "endpoints": [{"name": "/metrics", "method": "GET", "inputs": [], "outputs": ["metrics data"], "description": "Returns service health and performance metrics (Prometheus integration)."}, {"name": "/alerts", "method": "GET", "inputs": [], "outputs": ["alerts"], "description": "Returns current alerts for potential issues."}], "user_stories": ["9", "11"], "parameters": ["metrics data", "alerts"], "description": "Monitors service health and performance, integrates with Prometheus, and detects/alerts admins to potential issues in real time."}], "patterns": [{"group_name": "Per-Service Data Isolation", "implementation_pattern": "database per service", "involved_microservices": ["Catalog Service", "Cart Service", "Checkout Service", "Order Service", "Shipping Service", "Inventory Service", "Rating/Review Service", "Logging Service", "Monitoring Service"], "explaination": "Each microservice manages its own data and database, ensuring loose coupling and independent scaling. This is recommended in the context for all Sock Shop services."}, {"group_name": "Order Fulfillment Saga", "implementation_pattern": "saga", "involved_microservices": ["Checkout Service", "Order Service", "Inventory Service", "Shipping Service"], "explaination": "The checkout and order fulfillment process spans multiple services and requires coordination for consistency (e.g., payment, inventory reservation, shipping). The context recommends Saga for such business transactions."}, {"group_name": "Catalog and Inventory Consistency", "implementation_pattern": "domain event", "involved_microservices": ["Catalog Service", "Inventory Service"], "explaination": "When catalog updates occur, inventory may need to react (e.g., new product added). Domain events allow services to react to significant changes, as recommended in the context."}, {"group_name": "Order Status Propagation", "implementation_pattern": "domain event", "involved_microservices": ["Order Service", "Shipping Service"], "explaination": "Order status changes (e.g., shipped) are propagated to shipping via domain events, as per context guidance."}, {"group_name": "Aggregated Product and Order Views", "implementation_pattern": "api composition", "involved_microservices": ["Order Service", "Catalog Service", "Inventory Service"], "explaination": "For queries like order history with product details, API Composition is used to aggregate data from multiple services, as recommended in the context."}, {"group_name": "Order and Inventory Transactional Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Order Service", "Inventory Service", "Cart Service", "Catalog Service", "Rating/Review Service"], "explaination": "Aggregate pattern is used within services managing complex business entities to define transactional boundaries and ensure consistency, as per context."}, {"group_name": "Reporting and Dashboard Views", "implementation_pattern": "cqrs", "involved_microservices": ["Order Service", "Inventory Service", "Rating/Review Service"], "explaination": "CQRS is used for scenarios where read and write workloads differ, such as generating reports or dashboards that combine order, inventory, and rating data, as suggested in the context."}], "datastore": [{"datastore_name": "Catalog Database", "associated_microservices": ["Catalog Service"], "description": "Stores product catalog data, including product details, categories, and admin updates. Required for browsing, searching, and updating products (user stories 1, 6, 14)."}, {"datastore_name": "Cart Database", "associated_microservices": ["Cart Service"], "description": "Stores shopping cart contents for each user, including items and quantities. Needed for adding, updating, and viewing cart (user stories 2, 3)."}, {"datastore_name": "Checkout Database", "associated_microservices": ["Checkout Service"], "description": "Stores temporary checkout and payment transaction data. Required for processing checkouts and coordinating with other services (user story 4)."}, {"datastore_name": "Order Database", "associated_microservices": ["Order Service"], "description": "Stores order records, statuses, and history for users. Needed for order confirmation, status updates, and history (user stories 5, 7, 10)."}, {"datastore_name": "Shipping Database", "associated_microservices": ["Shipping Service"], "description": "Stores shipment records and status updates for orders. Required for tracking shipment status (user story 15)."}, {"datastore_name": "Inventory Database", "associated_microservices": ["Inventory Service"], "description": "Stores inventory levels and reservations for products. Needed to ensure product availability and prevent out-of-stock orders (user story 14)."}, {"datastore_name": "Rating/Review Database", "associated_microservices": ["Rating/Review Service"], "description": "Stores customer ratings and reviews for products and orders. Required for rating purchase experience (user story 12)."}, {"datastore_name": "Logging Database", "associated_microservices": ["Logging Service"], "description": "Stores logs of important events, errors, and failed transactions for monitoring and admin review (user stories 8, 13)."}, {"datastore_name": "Monitoring Database", "associated_microservices": ["Monitoring Service"], "description": "Stores service health, performance metrics, and alert data for real-time monitoring and alerting (user stories 9, 11)."}]}</t>
+          <t>{'microservices': [{'name': 'catalog-service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['filters', 'pagination'], 'outputs': ['product list', 'availability status'], 'description': 'Retrieves list of available socks with filters and pagination for browsing'}, {'name': '/products/{productId}', 'method': 'GET', 'inputs': ['productId'], 'outputs': ['product details', 'inventory count'], 'description': 'Retrieves detailed information about a specific sock product including availability'}, {'name': '/products', 'method': 'POST', 'inputs': ['product details', 'inventory count', 'admin token'], 'outputs': ['product creation result'], 'description': 'Allows admin to add new sock listings to the catalog'}, {'name': '/products/{productId}', 'method': 'PUT', 'inputs': ['productId', 'updated product details', 'inventory count', 'admin token'], 'outputs': ['product update result'], 'description': 'Allows admin to update existing sock listings and inventory'}, {'name': '/products/{productId}/inventory', 'method': 'PUT', 'inputs': ['productId', 'quantity adjustment'], 'outputs': ['inventory update result'], 'description': 'Updates inventory count for product, used internally during order processing'}, {'name': '/products/{productId}/availability', 'method': 'GET', 'inputs': ['productId', 'requested quantity'], 'outputs': ['availability status'], 'description': 'Checks if requested quantity of product is available in stock'}], 'user_stories': ['1', '6', '14'], 'parameters': ['productId', 'product name', 'product description', 'price', 'inventory count', 'product category', 'product image'], 'description': 'Manages the product catalog including sock listings, product details, availability, and inventory tracking. Allows browsing and admin operations for updating the catalog.'}, {'name': 'cart-service', 'endpoints': [{'name': '/cart', 'method': 'GET', 'inputs': ['customerId', 'sessionId'], 'outputs': ['cart contents', 'total items', 'total price'], 'description': 'Retrieves current shopping cart contents for a customer'}, {'name': '/cart/items', 'method': 'POST', 'inputs': ['customerId', 'sessionId', 'productId', 'quantity'], 'outputs': ['cart update result'], 'description': 'Adds a sock item to the shopping cart'}, {'name': '/cart/items/{itemId}', 'method': 'PUT', 'inputs': ['customerId', 'sessionId', 'itemId', 'new quantity'], 'outputs': ['cart update result'], 'description': 'Updates quantity of an existing item in the cart'}, {'name': '/cart/items/{itemId}', 'method': 'DELETE', 'inputs': ['customerId', 'sessionId', 'itemId'], 'outputs': ['cart update result'], 'description': 'Removes an item from the shopping cart'}, {'name': '/cart/clear', 'method': 'DELETE', 'inputs': ['customerId', 'sessionId'], 'outputs': ['cart clear result'], 'description': 'Clears all items from the shopping cart after successful order'}], 'user_stories': ['2', '3'], 'parameters': ['customerId', 'sessionId', 'productId', 'quantity', 'itemId', 'cart total'], 'description': 'Manages shopping cart functionality including adding items, viewing cart contents, and updating item quantities for each customer session.'}, {'name': 'order-service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['customerId', 'cart items', 'payment details', 'shipping address'], 'outputs': ['order confirmation', 'orderId', 'payment status'], 'description': 'Processes checkout and creates a new order with payment processing'}, {'name': '/orders/{orderId}', 'method': 'GET', 'inputs': ['orderId', 'customerId'], 'outputs': ['order details', 'order status', 'shipment tracking'], 'description': 'Retrieves details of a specific order including status and shipment information'}, {'name': '/orders/{orderId}/status', 'method': 'PUT', 'inputs': ['orderId', 'new status', 'admin token'], 'outputs': ['status update result'], 'description': 'Updates order status through fulfillment process'}, {'name': '/orders/customer/{customerId}', 'method': 'GET', 'inputs': ['customerId', 'pagination'], 'outputs': ['order history list'], 'description': 'Retrieves complete order history for a customer'}, {'name': '/orders/{orderId}/reorder', 'method': 'POST', 'inputs': ['orderId', 'customerId'], 'outputs': ['new orderId', 'cart contents'], 'description': 'Creates a new order based on a previous purchase'}, {'name': '/orders/{orderId}/shipment', 'method': 'GET', 'inputs': ['orderId', 'customerId'], 'outputs': ['shipment status', 'tracking number', 'estimated delivery'], 'description': 'Retrieves shipment tracking information for an order'}], 'user_stories': ['4', '5', '7', '10', '15'], 'parameters': ['orderId', 'customerId', 'order status', 'payment status', 'shipping address', 'order total', 'order items', 'shipment tracking number', 'order timestamp', 'payment transaction id'], 'description': 'Handles order processing, checkout, payment processing, order confirmation, status tracking through fulfillment, order history, and shipment tracking.'}, {'name': 'user-service', 'endpoints': [{'name': '/users/register', 'method': 'POST', 'inputs': ['email', 'password', 'user details'], 'outputs': ['registration result', 'userId'], 'description': 'Registers a new customer account'}, {'name': '/users/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['authentication token', 'user role'], 'description': 'Authenticates user and returns access token'}, {'name': '/users/{userId}', 'method': 'GET', 'inputs': ['userId', 'auth token'], 'outputs': ['user profile', 'user role'], 'description': 'Retrieves user profile information'}, {'name': '/users/{userId}', 'method': 'PUT', 'inputs': ['userId', 'updated user details', 'auth token'], 'outputs': ['profile update result'], 'description': 'Updates user profile information'}, {'name': '/users/{userId}/orders', 'method': 'GET', 'inputs': ['userId', 'auth token'], 'outputs': ['order history with details'], 'description': 'Retrieves order history for a specific user with order details'}], 'user_stories': ['10'], 'parameters': ['userId', 'email', 'password hash', 'user role', 'first name', 'last name', 'shipping address', 'authentication token'], 'description': 'Manages customer and admin authentication, authorization, and user profile information including order history access.'}, {'name': 'review-service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['customerId', 'orderId', 'rating', 'review text'], 'outputs': ['review creation result', 'reviewId'], 'description': 'Submits a new review for a completed order'}, {'name': '/reviews/order/{orderId}', 'method': 'GET', 'inputs': ['orderId'], 'outputs': ['review details'], 'description': 'Retrieves review for a specific order'}, {'name': '/reviews/product/{productId}', 'method': 'GET', 'inputs': ['productId', 'pagination'], 'outputs': ['reviews list', 'average rating'], 'description': 'Retrieves all reviews for a specific product'}, {'name': '/reviews/{reviewId}', 'method': 'PUT', 'inputs': ['reviewId', 'customerId', 'updated rating', 'updated review text'], 'outputs': ['review update result'], 'description': 'Updates an existing review'}], 'user_stories': ['12'], 'parameters': ['reviewId', 'customerId', 'orderId', 'productId', 'rating', 'review text', 'review timestamp'], 'description': 'Manages customer ratings and reviews for purchase experiences.'}, {'name': 'monitoring-service', 'endpoints': [{'name': '/logs', 'method': 'POST', 'inputs': ['service name', 'log level', 'log message', 'timestamp', 'context'], 'outputs': ['log ingestion result'], 'description': 'Receives and stores log entries from all microservices'}, {'name': '/logs/search', 'method': 'GET', 'inputs': ['service name', 'log level', 'time range', 'search query'], 'outputs': ['filtered logs list'], 'description': 'Searches and retrieves logs based on filters for admin review'}, {'name': '/metrics', 'method': 'POST', 'inputs': ['service name', 'metric name', 'metric value', 'timestamp'], 'outputs': ['metric ingestion result'], 'description': 'Receives performance metrics from all microservices'}, {'name': '/metrics/prometheus', 'method': 'GET', 'inputs': [], 'outputs': ['prometheus formatted metrics'], 'description': 'Exposes metrics in Prometheus format for scraping'}, {'name': '/health', 'method': 'GET', 'inputs': ['service name'], 'outputs': ['health status', 'service metrics'], 'description': 'Retrieves health status of specified service'}, {'name': '/alerts', 'method': 'POST', 'inputs': ['alert type', 'severity', 'service name', 'alert message'], 'outputs': ['alert creation result'], 'description': 'Creates alerts for potential system issues'}, {'name': '/alerts', 'method': 'GET', 'inputs': ['time range', 'severity filter'], 'outputs': ['alerts list'], 'description': 'Retrieves system alerts for admin review'}], 'user_stories': ['8', '9', '11', '13'], 'parameters': ['log entry', 'log level', 'service name', 'timestamp', 'metric name', 'metric value', 'alert type', 'alert severity', 'health status'], 'description': 'Centralized logging and monitoring service that collects logs, metrics, health checks, integrates with Prometheus for performance monitoring, and provides alerting capabilities for system issues.'}], 'patterns': [{'group_name': 'Service Independence', 'implementation_pattern': 'database per service', 'involved_microservices': ['catalog-service', 'cart-service', 'order-service', 'user-service', 'review-service', 'monitoring-service'], 'explaination': 'I chose database per service pattern to ensure loose coupling between all microservices. Each service maintains its own data store, allowing independent development, deployment, and scaling. This is recommended in the context for all services to ensure they can evolve without affecting others.'}, {'group_name': 'Order Processing Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['order-service', 'catalog-service', 'cart-service'], 'explaination': 'I chose the Saga pattern for order processing because it maintains data consistency across multiple services during checkout. The context specifically recommends this for order-service to coordinate inventory reservation with catalog-service, payment processing, order creation, and cart clearing. It implements compensating transactions if any step fails, which is critical for user stories 4, 5, and 14 (checkout, order confirmation, and preventing out-of-stock orders).'}, {'group_name': 'Order History Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['user-service', 'order-service'], 'explaination': 'I chose API Composition pattern for user-service to compose complete order history by combining order details and shipment status from order-service. The context recommends this for retrieving complete order history, which directly supports user story 10 (view order history and reorder previous purchases).'}, {'group_name': 'Product Display Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['catalog-service'], 'explaination': 'I chose API Composition for catalog-service as recommended in the context for displaying product details that may need real-time availability from inventory data, supporting user stories 1 and 14 (browsing socks and ensuring product availability).'}, {'group_name': 'Event-Driven Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['order-service', 'catalog-service', 'review-service', 'monitoring-service'], 'explaination': "I chose Domain Event pattern for inter-service communication as recommended in the context. Order-service publishes 'OrderPlaced' events, catalog-service publishes 'InventoryUpdated' events and subscribes to order events for stock updates, review-service subscribes to 'OrderCompleted' events to enable review functionality (user story 12), and monitoring-service subscribes to all critical domain events for logging and alerting (user stories 8, 11, 13)."}, {'group_name': 'Monitoring Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['monitoring-service'], 'explaination': 'I chose CQRS pattern for monitoring-service as recommended in the context to separate read models for dashboard queries, log searching, and real-time metrics without impacting write operations. This supports user stories 9, 11, and 13 (Prometheus monitoring, real-time alerts, and log review) by optimizing query performance while maintaining efficient log ingestion.'}, {'group_name': 'Order Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['order-service'], 'explaination': 'I chose CQRS pattern for order-service as recommended in the context to maintain a separate read model for order history queries (user stories 10 and 15) while maintaining transactional consistency for order processing. This optimizes query performance for historical data retrieval without impacting checkout operations.'}, {'group_name': 'Business Logic Consistency', 'implementation_pattern': 'aggregate', 'involved_microservices': ['catalog-service', 'order-service', 'cart-service'], 'explaination': 'I chose the Aggregate pattern to maintain consistency within each service as recommended in the context. Catalog-service has a Product aggregate managing sock listings and inventory, order-service has an Order aggregate managing order lifecycle and status (user story 7), and cart-service has a Cart aggregate managing cart items and quantities (user stories 2, 3).'}, {'group_name': 'Order Audit Trail', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['order-service'], 'explaination': 'I chose Event Sourcing pattern for order-service as recommended in the context (marked optional but beneficial) to maintain a complete audit trail of order state changes for tracking. This directly supports user stories 7 and 15 (track orders through fulfillment and shipment status tracking) by storing all order state transitions as events.'}, {'group_name': 'Monitoring Event Log', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['monitoring-service'], 'explaination': 'I chose Event Sourcing pattern for monitoring-service as recommended in the context to maintain an event log for system events and failure analysis. This supports user story 13 (review logs for failed transactions or errors) by preserving the complete history of system events for debugging and analysis.'}], 'datastore': [{'datastore_name': 'catalog_database', 'associated_microservices': ['catalog-service'], 'description': 'Stores product catalog data including sock listings, product details, pricing, categories, images, and current inventory counts. Required by database per service pattern and supports user stories 1, 6, and 14 (browsing products, admin updates, and availability checks). Stores Product aggregates and publishes InventoryUpdated domain events.'}, {'datastore_name': 'cart_database', 'associated_microservices': ['cart-service'], 'description': 'Stores shopping cart sessions with customer cart items, quantities, and temporary cart state. Required by database per service pattern and supports user stories 2 and 3 (adding items to cart and viewing/updating cart contents). Stores Cart aggregates maintaining cart consistency.'}, {'datastore_name': 'order_database', 'associated_microservices': ['order-service'], 'description': 'Stores order records including order details, payment transactions, order status history, shipment tracking information, and customer order relationships. Required by database per service pattern, Saga pattern coordination, and CQRS read models. Supports user stories 4, 5, 7, 10, and 15 (checkout, confirmation, status tracking, order history, and shipment tracking). With event sourcing, maintains complete audit trail of order state changes.'}, {'datastore_name': 'user_database', 'associated_microservices': ['user-service'], 'description': 'Stores user profiles, authentication credentials (hashed passwords), user roles (customer/admin), shipping addresses, and user preferences. Required by database per service pattern and supports user story 10 (authentication for order history access). Uses API composition to retrieve complete order history.'}, {'datastore_name': 'review_database', 'associated_microservices': ['review-service'], 'description': 'Stores customer ratings and reviews linked to orders and products, including rating scores, review text, and timestamps. Required by database per service pattern and supports user story 12 (rating purchase experience). Subscribes to OrderCompleted domain events to enable review submission.'}, {'datastore_name': 'monitoring_database', 'associated_microservices': ['monitoring-service'], 'description': 'Stores system logs, performance metrics, health check results, alert records, and event history. Required by database per service pattern and CQRS pattern for separate write and read models. Supports user stories 8, 9, 11, and 13 (logging events, Prometheus metrics, real-time alerts, and log review for failures). With event sourcing, maintains complete event log for system analysis.'}]}</t>
         </is>
       </c>
     </row>
